--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philongtran/Documents/rdg-maker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECE8BC7-6D72-2647-BA34-82B7D84D3234}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4054813-A034-394E-9C21-EFDE5B6AB19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>YT-Link</t>
   </si>
@@ -90,6 +90,24 @@
   </si>
   <si>
     <t>TREASURE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LpuebulWBaQ</t>
+  </si>
+  <si>
+    <t>Blessed-Cursed</t>
+  </si>
+  <si>
+    <t>ENHYPEN</t>
+  </si>
+  <si>
+    <t>https://youtu.be/dyWNlenb90k</t>
+  </si>
+  <si>
+    <t>Inception</t>
+  </si>
+  <si>
+    <t>iKON</t>
   </si>
 </sst>
 </file>
@@ -145,8 +163,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:H4" totalsRowShown="0">
-  <autoFilter ref="A1:H4" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
+  <autoFilter ref="A1:H6" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AEF0852B-C163-3F43-87D8-66B67DBDEB06}" name="YT-Link"/>
     <tableColumn id="2" xr3:uid="{137AA8C4-7B77-3D4A-8669-27DBAE9E7146}" name="Title"/>
@@ -458,15 +476,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBC910-98A8-C649-97B0-2A1947896846}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -559,6 +578,52 @@
         <v>65</v>
       </c>
       <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>52</v>
+      </c>
+      <c r="F6">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
     </row>

--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philongtran/Documents/rdg-maker/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker\rgd_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4054813-A034-394E-9C21-EFDE5B6AB19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76331391-1510-4493-8EE8-9CB16632B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14040" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
   </bookViews>
   <sheets>
     <sheet name="Songlist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="164">
   <si>
     <t>YT-Link</t>
   </si>
@@ -108,19 +108,442 @@
   </si>
   <si>
     <t>iKON</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6iSAyOO6oZg</t>
+  </si>
+  <si>
+    <t>LO$ER=LO♡ER</t>
+  </si>
+  <si>
+    <t>TXT</t>
+  </si>
+  <si>
+    <t>Hasse</t>
+  </si>
+  <si>
+    <t>https://youtu.be/MjTLxf1SN1c</t>
+  </si>
+  <si>
+    <t>Kick It</t>
+  </si>
+  <si>
+    <t>NCT 127</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hCy5D1fqOVs</t>
+  </si>
+  <si>
+    <t>Tiger</t>
+  </si>
+  <si>
+    <t>HOSHI</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NPuSOY0afXQ</t>
+  </si>
+  <si>
+    <t>MANIAC</t>
+  </si>
+  <si>
+    <t>Stray Kids</t>
+  </si>
+  <si>
+    <t>https://youtu.be/a_wTClywM48</t>
+  </si>
+  <si>
+    <t>Fearless</t>
+  </si>
+  <si>
+    <t>Le Sserafim</t>
+  </si>
+  <si>
+    <t>https://youtu.be/mIXR-7u2Kas</t>
+  </si>
+  <si>
+    <t>FANCY</t>
+  </si>
+  <si>
+    <t>TWICE</t>
+  </si>
+  <si>
+    <t>Ganzer Song</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>https://youtu.be/x8PkgClZVVM</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Dancebreak</t>
+  </si>
+  <si>
+    <t>https://youtu.be/CW5bOQtGKdI</t>
+  </si>
+  <si>
+    <t>Every Night</t>
+  </si>
+  <si>
+    <t>EXID</t>
+  </si>
+  <si>
+    <t>Chorus 2</t>
+  </si>
+  <si>
+    <t>Tamina</t>
+  </si>
+  <si>
+    <t>https://youtu.be/tWIODP1DC9c</t>
+  </si>
+  <si>
+    <t>Kiss Kiss</t>
+  </si>
+  <si>
+    <t>Bridge,
+Chorus 3</t>
+  </si>
+  <si>
+    <t>https://youtu.be/klBucvMuQlQ</t>
+  </si>
+  <si>
+    <t>Ladies Code'</t>
+  </si>
+  <si>
+    <t>Pretty Pretty</t>
+  </si>
+  <si>
+    <t>Someone</t>
+  </si>
+  <si>
+    <t>https://youtu.be/W-4Cg05lbPU</t>
+  </si>
+  <si>
+    <t>SHAKE IT</t>
+  </si>
+  <si>
+    <t>SISTAR</t>
+  </si>
+  <si>
+    <t>https://youtu.be/x_uFvdHL0vc</t>
+  </si>
+  <si>
+    <t>Triple H</t>
+  </si>
+  <si>
+    <t>365 Fresh</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VYnlgzISUNg</t>
+  </si>
+  <si>
+    <t>Bad Girl</t>
+  </si>
+  <si>
+    <t>https://youtu.be/KYG5rvY_4mc</t>
+  </si>
+  <si>
+    <t>So Wonderful</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bCAK5Q8n8Wk</t>
+  </si>
+  <si>
+    <t>Hobgoblin</t>
+  </si>
+  <si>
+    <t>CLC</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RMc9qFrCqno</t>
+  </si>
+  <si>
+    <t>DDU-DU DDU-DU</t>
+  </si>
+  <si>
+    <t>BLACKPINK</t>
+  </si>
+  <si>
+    <t>https://youtu.be/UvvMPxZI_sw</t>
+  </si>
+  <si>
+    <t>PTT (Paint The Town)</t>
+  </si>
+  <si>
+    <t>LOONA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/nAI4pbyrdXE</t>
+  </si>
+  <si>
+    <t>Copycat</t>
+  </si>
+  <si>
+    <t>Apink CHOBOM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bMSkW8byD3k</t>
+  </si>
+  <si>
+    <t>WANNABE</t>
+  </si>
+  <si>
+    <t>ITZY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/OU2zZU75kHU</t>
+  </si>
+  <si>
+    <t>Up!</t>
+  </si>
+  <si>
+    <t>Kep1er</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cfhPYpR7ZSE</t>
+  </si>
+  <si>
+    <t>Hot Sauce</t>
+  </si>
+  <si>
+    <t>NCT DREAM</t>
+  </si>
+  <si>
+    <t>https://youtu.be/acBFkRkpUYM</t>
+  </si>
+  <si>
+    <t>Dumb Litty</t>
+  </si>
+  <si>
+    <t>KARD</t>
+  </si>
+  <si>
+    <t>https://youtu.be/o1yo2qd9MGQ</t>
+  </si>
+  <si>
+    <t>ZOO</t>
+  </si>
+  <si>
+    <t>NCT X aespa</t>
+  </si>
+  <si>
+    <t>https://youtu.be/YvszZE1TZaU</t>
+  </si>
+  <si>
+    <t>SPINE BREAKER</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>https://youtu.be/BSDHT1NIn5w</t>
+  </si>
+  <si>
+    <t>Good Boy Gone Bad</t>
+  </si>
+  <si>
+    <t>https://youtu.be/3zlfvV4gOLg</t>
+  </si>
+  <si>
+    <t>Feel Special</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HL_N7-gGEL8</t>
+  </si>
+  <si>
+    <t>Girls' Generation</t>
+  </si>
+  <si>
+    <t>https://youtu.be/uEnIsBKkbh4</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Into The New World</t>
+  </si>
+  <si>
+    <t>Cookie</t>
+  </si>
+  <si>
+    <t>NewJeans</t>
+  </si>
+  <si>
+    <t>https://youtu.be/iCTnVrpnk7E</t>
+  </si>
+  <si>
+    <t>Bad Girl Good Girl</t>
+  </si>
+  <si>
+    <t>Miss A</t>
+  </si>
+  <si>
+    <t>https://youtu.be/aNkenqaNKuo</t>
+  </si>
+  <si>
+    <t>STEP</t>
+  </si>
+  <si>
+    <t>KARA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/NtAjsnF0Gvc</t>
+  </si>
+  <si>
+    <t>GANGNAM STYLE</t>
+  </si>
+  <si>
+    <t>PSY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/VL-OqmgDkdU</t>
+  </si>
+  <si>
+    <t>GENTLEMAN</t>
+  </si>
+  <si>
+    <t>https://youtu.be/1Tdkly_FcL0</t>
+  </si>
+  <si>
+    <t>24 hours</t>
+  </si>
+  <si>
+    <t>Sunmi</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bNYArKgo2Ns</t>
+  </si>
+  <si>
+    <t>Catallena</t>
+  </si>
+  <si>
+    <t>Orange Caramel</t>
+  </si>
+  <si>
+    <t>https://youtu.be/HE-VGYcxQLY</t>
+  </si>
+  <si>
+    <t>Wiggle Wiggle</t>
+  </si>
+  <si>
+    <t>Hello Venus</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ln6vdqhnd2k</t>
+  </si>
+  <si>
+    <t>BANG BANG BANG</t>
+  </si>
+  <si>
+    <t>BIGBANG</t>
+  </si>
+  <si>
+    <t>https://youtu.be/8BgIHJvTeCU</t>
+  </si>
+  <si>
+    <t>Like OOH-AHH</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WvwjisFDfNI</t>
+  </si>
+  <si>
+    <t>Very NICE</t>
+  </si>
+  <si>
+    <t>SEVENTEEN</t>
+  </si>
+  <si>
+    <t>https://youtu.be/cXzOIfcIVAU</t>
+  </si>
+  <si>
+    <t>Whistle</t>
+  </si>
+  <si>
+    <t>https://youtu.be/qJQ6ev5LQ6A</t>
+  </si>
+  <si>
+    <t>Russian Roulette</t>
+  </si>
+  <si>
+    <t>Red Velvet</t>
+  </si>
+  <si>
+    <t>https://youtu.be/J9b7gveF_tQ</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Start/End from RDG Stuttgart</t>
+  </si>
+  <si>
+    <t>https://youtu.be/w3HfiOlLhBo</t>
+  </si>
+  <si>
+    <t>REALLY REALLY</t>
+  </si>
+  <si>
+    <t>WINNER</t>
+  </si>
+  <si>
+    <t>https://youtu.be/yJcvSQV5T0Q</t>
+  </si>
+  <si>
+    <t>NEW FACE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bUwHblpMX1M</t>
+  </si>
+  <si>
+    <t>Red Flavor</t>
+  </si>
+  <si>
+    <t>https://youtu.be/hi6N_zl7f1s</t>
+  </si>
+  <si>
+    <t>Gashina</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Dqn65yZYswI</t>
+  </si>
+  <si>
+    <t>LIKEY</t>
+  </si>
+  <si>
+    <t>https://youtu.be/w8GomPcd_uw</t>
+  </si>
+  <si>
+    <t>Clap</t>
+  </si>
+  <si>
+    <t>https://youtu.be/WEut6orzndM</t>
+  </si>
+  <si>
+    <t>Lip &amp; Hip</t>
+  </si>
+  <si>
+    <t>HyunA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -143,8 +566,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -163,8 +590,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:H6" totalsRowShown="0">
-  <autoFilter ref="A1:H6" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
+  <autoFilter ref="A1:H55" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AEF0852B-C163-3F43-87D8-66B67DBDEB06}" name="YT-Link"/>
     <tableColumn id="2" xr3:uid="{137AA8C4-7B77-3D4A-8669-27DBAE9E7146}" name="Title"/>
@@ -476,20 +903,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBC910-98A8-C649-97B0-2A1947896846}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="2" max="2" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -538,7 +966,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -557,8 +985,11 @@
       <c r="F3">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -581,7 +1012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -604,7 +1035,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -627,10 +1058,1189 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>45</v>
+      </c>
+      <c r="F7">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <v>52</v>
+      </c>
+      <c r="F9">
+        <v>74</v>
+      </c>
+      <c r="G9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>45</v>
+      </c>
+      <c r="F11">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="F12">
+        <v>214</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>145</v>
+      </c>
+      <c r="F13">
+        <v>170</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>47</v>
+      </c>
+      <c r="F14">
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>54</v>
+      </c>
+      <c r="F15">
+        <v>88</v>
+      </c>
+      <c r="G15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16">
+        <v>162</v>
+      </c>
+      <c r="F16">
+        <v>211</v>
+      </c>
+      <c r="G16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>85</v>
+      </c>
+      <c r="G17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
+        <v>41</v>
+      </c>
+      <c r="F18">
+        <v>92</v>
+      </c>
+      <c r="G18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>108</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>44</v>
+      </c>
+      <c r="F20">
+        <v>73</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>110</v>
+      </c>
+      <c r="G21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22">
+        <v>71</v>
+      </c>
+      <c r="F22">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23">
+        <v>70</v>
+      </c>
+      <c r="F23">
+        <v>93</v>
+      </c>
+      <c r="G23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+      <c r="F24">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
+        <v>43</v>
+      </c>
+      <c r="F25">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>83</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>43</v>
+      </c>
+      <c r="F27">
+        <v>74</v>
+      </c>
+      <c r="G27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>89</v>
+      </c>
+      <c r="B28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C28" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
+        <v>52</v>
+      </c>
+      <c r="F28">
+        <v>73</v>
+      </c>
+      <c r="G28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" t="s">
+        <v>10</v>
+      </c>
+      <c r="E29">
+        <v>59</v>
+      </c>
+      <c r="F29">
+        <v>76</v>
+      </c>
+      <c r="G29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <v>103</v>
+      </c>
+      <c r="F30">
+        <v>119</v>
+      </c>
+      <c r="G30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31">
+        <v>215</v>
+      </c>
+      <c r="F31">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>77</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" t="s">
+        <v>10</v>
+      </c>
+      <c r="E33">
+        <v>45</v>
+      </c>
+      <c r="F33">
+        <v>78</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" t="s">
+        <v>109</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>122</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>107</v>
+      </c>
+      <c r="B35" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>49</v>
+      </c>
+      <c r="F35">
+        <v>74</v>
+      </c>
+      <c r="G35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" t="s">
+        <v>113</v>
+      </c>
+      <c r="C36" t="s">
+        <v>114</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>56</v>
+      </c>
+      <c r="F36">
+        <v>85</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" t="s">
+        <v>116</v>
+      </c>
+      <c r="C37" t="s">
+        <v>117</v>
+      </c>
+      <c r="D37" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>49</v>
+      </c>
+      <c r="F37">
+        <v>72</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>118</v>
+      </c>
+      <c r="B38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>66</v>
+      </c>
+      <c r="F38">
+        <v>97</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>58</v>
+      </c>
+      <c r="F39">
+        <v>76</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" t="s">
+        <v>125</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>65</v>
+      </c>
+      <c r="F40">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
+        <v>128</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>58</v>
+      </c>
+      <c r="F41">
+        <v>92</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>131</v>
+      </c>
+      <c r="D42" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>25</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>50</v>
+      </c>
+      <c r="F43">
+        <v>85</v>
+      </c>
+      <c r="G43" t="s">
+        <v>60</v>
+      </c>
+      <c r="H43" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <v>82</v>
+      </c>
+      <c r="G44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+      <c r="C45" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" t="s">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>34</v>
+      </c>
+      <c r="F45">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>60</v>
+      </c>
+      <c r="H45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>55</v>
+      </c>
+      <c r="F46">
+        <v>95</v>
+      </c>
+      <c r="G46" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>41</v>
+      </c>
+      <c r="F47">
+        <v>74</v>
+      </c>
+      <c r="G47" t="s">
+        <v>60</v>
+      </c>
+      <c r="H47" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>145</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>45</v>
+      </c>
+      <c r="F48">
+        <v>92</v>
+      </c>
+      <c r="G48" t="s">
+        <v>60</v>
+      </c>
+      <c r="H48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" t="s">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>50</v>
+      </c>
+      <c r="F49">
+        <v>76</v>
+      </c>
+      <c r="G49" t="s">
+        <v>60</v>
+      </c>
+      <c r="H49" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50">
+        <v>44</v>
+      </c>
+      <c r="F50">
+        <v>72</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>46</v>
+      </c>
+      <c r="F51">
+        <v>64</v>
+      </c>
+      <c r="G51" t="s">
+        <v>60</v>
+      </c>
+      <c r="H51" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+      <c r="B52" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D52" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>71</v>
+      </c>
+      <c r="G52" t="s">
+        <v>60</v>
+      </c>
+      <c r="H52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>157</v>
+      </c>
+      <c r="B53" t="s">
+        <v>158</v>
+      </c>
+      <c r="C53" t="s">
+        <v>43</v>
+      </c>
+      <c r="D53" t="s">
+        <v>10</v>
+      </c>
+      <c r="E53">
+        <v>70</v>
+      </c>
+      <c r="F53">
+        <v>102</v>
+      </c>
+      <c r="G53" t="s">
+        <v>60</v>
+      </c>
+      <c r="H53" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>159</v>
+      </c>
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54">
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <v>65</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="H54" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>161</v>
+      </c>
+      <c r="B55" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D55" t="s">
+        <v>10</v>
+      </c>
+      <c r="E55">
+        <v>43</v>
+      </c>
+      <c r="F55">
+        <v>103</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker\rgd_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76331391-1510-4493-8EE8-9CB16632B367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{711D5F88-E4B5-4D84-BC4F-5ABB2BD65CB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="176">
   <si>
     <t>YT-Link</t>
   </si>
@@ -526,6 +526,42 @@
   </si>
   <si>
     <t>HyunA</t>
+  </si>
+  <si>
+    <t>https://youtu.be/jjCBYlzwaY8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anyone </t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>https://youtu.be/6rHn5PxMezw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hot </t>
+  </si>
+  <si>
+    <t>Beginning</t>
+  </si>
+  <si>
+    <t>https://youtu.be/LP5XXi5TGF8</t>
+  </si>
+  <si>
+    <t>Rock with you</t>
+  </si>
+  <si>
+    <t>https://youtu.be/RFMi3v0TXP8</t>
+  </si>
+  <si>
+    <t>Pink Venom</t>
+  </si>
+  <si>
+    <t>https://youtu.be/11cta61wi0g</t>
+  </si>
+  <si>
+    <t>Hype Boy</t>
   </si>
 </sst>
 </file>
@@ -590,8 +626,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:H55" totalsRowShown="0">
-  <autoFilter ref="A1:H55" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:H60" totalsRowShown="0">
+  <autoFilter ref="A1:H60" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{AEF0852B-C163-3F43-87D8-66B67DBDEB06}" name="YT-Link"/>
     <tableColumn id="2" xr3:uid="{137AA8C4-7B77-3D4A-8669-27DBAE9E7146}" name="Title"/>
@@ -903,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBC910-98A8-C649-97B0-2A1947896846}">
-  <dimension ref="A1:H55"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2236,6 +2272,121 @@
         <v>147</v>
       </c>
     </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
+      </c>
+      <c r="E56">
+        <v>115</v>
+      </c>
+      <c r="F56">
+        <v>154</v>
+      </c>
+      <c r="G56" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C57" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57">
+        <v>10</v>
+      </c>
+      <c r="F57">
+        <v>96</v>
+      </c>
+      <c r="G57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" t="s">
+        <v>139</v>
+      </c>
+      <c r="D58" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58">
+        <v>73</v>
+      </c>
+      <c r="F58">
+        <v>106</v>
+      </c>
+      <c r="G58" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" t="s">
+        <v>10</v>
+      </c>
+      <c r="E59">
+        <v>56</v>
+      </c>
+      <c r="F59">
+        <v>85</v>
+      </c>
+      <c r="G59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" t="s">
+        <v>175</v>
+      </c>
+      <c r="C60" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60">
+        <v>43</v>
+      </c>
+      <c r="F60">
+        <v>92</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker\rgd_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6055DEBE-17D7-46A0-AA20-E9B774730481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1CED44-4B27-4DA2-A890-6A652E226809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="355">
   <si>
     <t>YT-Link</t>
   </si>
@@ -1093,6 +1093,15 @@
   </si>
   <si>
     <t>Question Mark is a different, because normal Question Marks aren't allowed on file names.</t>
+  </si>
+  <si>
+    <t>https://youtu.be/Cix9CdpYS6s</t>
+  </si>
+  <si>
+    <t>Shut Down</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -1234,8 +1243,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:J122" totalsRowShown="0">
-  <autoFilter ref="A1:J122" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:J123" totalsRowShown="0">
+  <autoFilter ref="A1:J123" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J122">
     <sortCondition ref="B1:B122"/>
   </sortState>
@@ -1554,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B621B2E-2CEA-48FE-A1FE-40346C5BFFFE}">
-  <dimension ref="A1:G91"/>
+  <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G91"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3667,6 +3676,29 @@
         <v>228</v>
       </c>
     </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E92" s="11">
+        <v>54</v>
+      </c>
+      <c r="F92" s="11">
+        <v>81</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A66" r:id="rId1" xr:uid="{97E5E8F1-2052-4CB1-BE89-C57C6BF27ED3}"/>
@@ -3678,10 +3710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBC910-98A8-C649-97B0-2A1947896846}">
-  <dimension ref="A1:J122"/>
+  <dimension ref="A1:J123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7322,6 +7354,36 @@
         <v>44820</v>
       </c>
     </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>352</v>
+      </c>
+      <c r="B123" t="s">
+        <v>353</v>
+      </c>
+      <c r="C123" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123" t="s">
+        <v>10</v>
+      </c>
+      <c r="E123">
+        <v>54</v>
+      </c>
+      <c r="F123">
+        <v>81</v>
+      </c>
+      <c r="G123" t="s">
+        <v>354</v>
+      </c>
+      <c r="H123" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>27</v>
+      </c>
+      <c r="I123" s="4">
+        <v>44820</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>

--- a/songlist.xlsx
+++ b/songlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Code\rdg_maker\rgd_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290EA3C8-E891-48C9-A9D8-09FF61CF1ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCDBED2-5548-488A-8A4B-EDF5AF6FD72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D12D7040-8AB9-1143-ABFA-D53C7CDED414}"/>
   </bookViews>
   <sheets>
     <sheet name="Exportlist" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1109" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1083" uniqueCount="395">
   <si>
     <t>YT-Link</t>
   </si>
@@ -1207,6 +1207,21 @@
   </si>
   <si>
     <t>Bboom Bboom</t>
+  </si>
+  <si>
+    <t>https://youtu.be/4kwhRUHjWwE</t>
+  </si>
+  <si>
+    <t>After LIKE</t>
+  </si>
+  <si>
+    <t>https://youtu.be/DwsTPix2zYU</t>
+  </si>
+  <si>
+    <t>CASE 143</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1321,7 +1336,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
@@ -1352,11 +1366,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:K138" totalsRowShown="0">
-  <autoFilter ref="A1:K138" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K138">
-    <sortCondition ref="K1:K138"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}" name="Table1" displayName="Table1" ref="A1:K140" totalsRowShown="0">
+  <autoFilter ref="A1:K140" xr:uid="{6D67469D-06FF-DF48-A24C-FEE350813DA8}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{AEF0852B-C163-3F43-87D8-66B67DBDEB06}" name="YT-Link"/>
     <tableColumn id="2" xr3:uid="{137AA8C4-7B77-3D4A-8669-27DBAE9E7146}" name="Title"/>
@@ -1675,10 +1686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B621B2E-2CEA-48FE-A1FE-40346C5BFFFE}">
-  <dimension ref="A1:F98"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C100" sqref="C100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1716,380 +1727,380 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>164</v>
+      <c r="A2" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6">
-        <v>115</v>
+        <v>45</v>
       </c>
       <c r="F2" s="6">
-        <v>154</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="E3" s="7">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F3" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>328</v>
+        <v>349</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>240</v>
+        <v>281</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>37</v>
+        <v>278</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="6">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="F4" s="6">
-        <v>61</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>159</v>
+        <v>243</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E5" s="7">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="F5" s="7">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>106</v>
+        <v>334</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>109</v>
+        <v>258</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="6">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>79</v>
+        <v>347</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>80</v>
+        <v>276</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>81</v>
+        <v>221</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="7">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="F7" s="7">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>338</v>
+        <v>317</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>337</v>
+        <v>218</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>9</v>
+        <v>212</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E8" s="6">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="F8" s="6">
-        <v>79</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>275</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="7">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="F9" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="6">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F10" s="6">
-        <v>89</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F11" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>88</v>
+        <v>333</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>89</v>
+        <v>254</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="6">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E13" s="7">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="F13" s="7">
-        <v>85</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>162</v>
+        <v>236</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="6">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="6">
-        <v>61</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>134</v>
+        <v>307</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F15" s="7">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
-        <v>156</v>
+        <v>331</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>157</v>
+        <v>250</v>
       </c>
       <c r="C16" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="6">
         <v>43</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="6">
-        <v>70</v>
-      </c>
       <c r="F16" s="6">
-        <v>102</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
-        <v>25</v>
+      <c r="A17" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>27</v>
+        <v>246</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E17" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="7">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>84</v>
+        <v>260</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E18" s="6">
-        <v>125</v>
+        <v>59</v>
       </c>
       <c r="F18" s="6">
-        <v>156</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
-        <v>317</v>
+      <c r="A19" s="14" t="s">
+        <v>173</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>218</v>
+        <v>174</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>212</v>
+        <v>110</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>48</v>
+        <v>303</v>
       </c>
       <c r="E19" s="7">
-        <v>140</v>
+        <v>43</v>
       </c>
       <c r="F19" s="7">
-        <v>173</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>330</v>
+        <v>141</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>245</v>
+        <v>142</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="D20" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E20" s="6">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F20" s="6">
         <v>74</v>
@@ -2097,1568 +2108,1387 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>236</v>
+        <v>21</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E21" s="7">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F21" s="7">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
-        <v>150</v>
+        <v>287</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>119</v>
+        <v>75</v>
       </c>
       <c r="D22" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E22" s="6">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="F22" s="6">
-        <v>72</v>
+        <v>95</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>342</v>
+        <v>82</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>274</v>
+        <v>83</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>52</v>
+        <v>249</v>
       </c>
       <c r="E23" s="7">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F23" s="7">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="6">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="F24" s="6">
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>275</v>
+        <v>185</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E25" s="7">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="F25" s="7">
-        <v>52</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>171</v>
+      <c r="A26" s="9" t="s">
+        <v>128</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
       <c r="D26" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E26" s="6">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="F26" s="6">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>323</v>
+        <v>60</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>222</v>
+        <v>61</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="7">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="F27" s="7">
-        <v>65</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>76</v>
+        <v>382</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>77</v>
+        <v>383</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D28" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="6">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="6">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>153</v>
+        <v>101</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>143</v>
+        <v>27</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="7">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="F29" s="7">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>329</v>
+        <v>106</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>243</v>
+        <v>109</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>244</v>
+        <v>110</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E30" s="6">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F30" s="6">
-        <v>108</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="16" t="s">
-        <v>170</v>
+      <c r="A31" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>195</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E31" s="7">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F31" s="7">
-        <v>106</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
-        <v>349</v>
+        <v>7</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>281</v>
+        <v>8</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>278</v>
+        <v>9</v>
       </c>
       <c r="D32" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E32" s="6">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="F32" s="6">
-        <v>92</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E33" s="7">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F33" s="7">
-        <v>74</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
-        <v>333</v>
+        <v>88</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>254</v>
+        <v>89</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>255</v>
+        <v>90</v>
       </c>
       <c r="D34" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E34" s="6">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F34" s="6">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>259</v>
+        <v>362</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>260</v>
+        <v>43</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E35" s="7">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F35" s="7">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D36" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="6">
-        <v>39</v>
+        <v>80</v>
       </c>
       <c r="F36" s="6">
-        <v>69</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
-        <v>32</v>
+        <v>313</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>33</v>
+        <v>213</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="E37" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F37" s="7">
-        <v>74</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>276</v>
+        <v>47</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E38" s="6">
-        <v>52</v>
+        <v>145</v>
       </c>
       <c r="F38" s="6">
-        <v>72</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
-        <v>144</v>
+        <v>310</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="E39" s="7">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="F39" s="7">
-        <v>92</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>64</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="6">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="F40" s="6">
-        <v>55</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
-        <v>139</v>
+        <v>321</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>140</v>
+        <v>220</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>75</v>
+        <v>221</v>
       </c>
       <c r="D41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="7">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F41" s="7">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E42" s="6">
+        <v>85</v>
+      </c>
+      <c r="F42" s="6">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="7">
+        <v>49</v>
+      </c>
+      <c r="F43" s="7">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E44" s="6">
+        <v>41</v>
+      </c>
+      <c r="F44" s="6">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="E45" s="7">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46" s="6">
+        <v>53</v>
+      </c>
+      <c r="F46" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" s="7">
+        <v>65</v>
+      </c>
+      <c r="F47" s="7">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="6">
+        <v>47</v>
+      </c>
+      <c r="F48" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E49" s="7">
+        <v>45</v>
+      </c>
+      <c r="F49" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D50" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E50" s="6">
+        <v>44</v>
+      </c>
+      <c r="F50" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B51" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C51" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E51" s="7">
         <v>166</v>
       </c>
-      <c r="F42" s="6">
+      <c r="F51" s="7">
         <v>196</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="C43" s="6" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E43" s="6">
+      <c r="D52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="6">
+        <v>71</v>
+      </c>
+      <c r="F52" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E53" s="7">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E54" s="6">
+        <v>58</v>
+      </c>
+      <c r="F54" s="6">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E55" s="7">
+        <v>115</v>
+      </c>
+      <c r="F55" s="7">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D56" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56" s="6">
+        <v>70</v>
+      </c>
+      <c r="F56" s="6">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="7">
+        <v>67</v>
+      </c>
+      <c r="F57" s="7">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E58" s="6">
+        <v>55</v>
+      </c>
+      <c r="F58" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E59" s="7">
+        <v>47</v>
+      </c>
+      <c r="F59" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="6">
+        <v>56</v>
+      </c>
+      <c r="F60" s="6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="7">
+        <v>45</v>
+      </c>
+      <c r="F61" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="6">
+        <v>52</v>
+      </c>
+      <c r="F62" s="6">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="7">
+        <v>69</v>
+      </c>
+      <c r="F63" s="7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C64" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="6">
+        <v>16</v>
+      </c>
+      <c r="F64" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="7">
+        <v>40</v>
+      </c>
+      <c r="F65" s="7">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D66" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="6">
+        <v>44</v>
+      </c>
+      <c r="F66" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F43" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B44" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E44" s="7">
-        <v>32</v>
-      </c>
-      <c r="F44" s="7">
+      <c r="B67" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="7">
+        <v>54</v>
+      </c>
+      <c r="F67" s="7">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="6">
+        <v>35</v>
+      </c>
+      <c r="F68" s="6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="7">
+        <v>42</v>
+      </c>
+      <c r="F69" s="7">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E70" s="6">
+        <v>176</v>
+      </c>
+      <c r="F70" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E71" s="7">
+        <v>45</v>
+      </c>
+      <c r="F71" s="7">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E72" s="6">
+        <v>73</v>
+      </c>
+      <c r="F72" s="6">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E73" s="7">
+        <v>49</v>
+      </c>
+      <c r="F73" s="7">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C74" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D74" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="E74" s="6">
+        <v>47</v>
+      </c>
+      <c r="F74" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E75" s="7">
+        <v>215</v>
+      </c>
+      <c r="F75" s="7">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D76" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E76" s="6">
+        <v>41</v>
+      </c>
+      <c r="F76" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E77" s="7">
+        <v>59</v>
+      </c>
+      <c r="F77" s="7">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C78" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E78" s="6">
+        <v>57</v>
+      </c>
+      <c r="F78" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E79" s="7">
+        <v>33</v>
+      </c>
+      <c r="F79" s="7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80" s="6">
+        <v>62</v>
+      </c>
+      <c r="F80" s="6">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E81" s="7">
+        <v>58</v>
+      </c>
+      <c r="F81" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="E45" s="6">
-        <v>47</v>
-      </c>
-      <c r="F45" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="B46" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E46" s="7">
-        <v>40</v>
-      </c>
-      <c r="F46" s="7">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E47" s="6">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D82" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E82" s="6">
+        <v>10</v>
+      </c>
+      <c r="F82" s="6">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E83" s="7">
+        <v>36</v>
+      </c>
+      <c r="F83" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E84" s="6">
         <v>48</v>
       </c>
-      <c r="F47" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B48" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="7">
-        <v>29</v>
-      </c>
-      <c r="F48" s="7">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E49" s="6">
+      <c r="F84" s="6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E85" s="7">
         <v>45</v>
       </c>
-      <c r="F49" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="B50" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E50" s="7">
-        <v>10</v>
-      </c>
-      <c r="F50" s="7">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E51" s="6">
-        <v>25</v>
-      </c>
-      <c r="F51" s="6">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="C52" s="7" t="s">
+      <c r="F85" s="7">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="D52" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E52" s="7">
+      <c r="D86" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E86" s="6">
+        <v>69</v>
+      </c>
+      <c r="F86" s="6">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="7">
+        <v>43</v>
+      </c>
+      <c r="F87" s="7">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E88" s="6">
         <v>50</v>
       </c>
-      <c r="F52" s="7">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D53" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="6">
-        <v>53</v>
-      </c>
-      <c r="F53" s="6">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E54" s="7">
-        <v>46</v>
-      </c>
-      <c r="F54" s="7">
+      <c r="F88" s="6">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E55" s="6">
-        <v>45</v>
-      </c>
-      <c r="F55" s="6">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E56" s="7">
-        <v>55</v>
-      </c>
-      <c r="F56" s="7">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="E57" s="6">
-        <v>10</v>
-      </c>
-      <c r="F57" s="6">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="7">
-        <v>59</v>
-      </c>
-      <c r="F58" s="7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E59" s="6">
-        <v>45</v>
-      </c>
-      <c r="F59" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B60" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E60" s="7">
-        <v>50</v>
-      </c>
-      <c r="F60" s="7">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E61" s="6">
-        <v>49</v>
-      </c>
-      <c r="F61" s="6">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B62" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E62" s="7">
-        <v>215</v>
-      </c>
-      <c r="F62" s="7">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="9" t="s">
-        <v>300</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D63" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="6">
-        <v>45</v>
-      </c>
-      <c r="F63" s="6">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E64" s="7">
-        <v>66</v>
-      </c>
-      <c r="F64" s="7">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="C65" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E65" s="6">
-        <v>65</v>
-      </c>
-      <c r="F65" s="6">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B66" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E66" s="7">
-        <v>43</v>
-      </c>
-      <c r="F66" s="7">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="C67" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D67" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E67" s="6">
-        <v>53</v>
-      </c>
-      <c r="F67" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B68" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="7">
-        <v>57</v>
-      </c>
-      <c r="F68" s="7">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="E69" s="6">
-        <v>49</v>
-      </c>
-      <c r="F69" s="6">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B70" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="C70" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E70" s="7">
-        <v>41</v>
-      </c>
-      <c r="F70" s="7">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="C71" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D71" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E71" s="6">
-        <v>50</v>
-      </c>
-      <c r="F71" s="6">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E89" s="7">
+        <v>56</v>
+      </c>
+      <c r="F89" s="7">
         <v>85</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E72" s="7">
-        <v>103</v>
-      </c>
-      <c r="F72" s="7">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6">
-        <v>10</v>
-      </c>
-      <c r="F73" s="6">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="B74" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="7">
-        <v>35</v>
-      </c>
-      <c r="F74" s="7">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C75" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E75" s="6">
-        <v>176</v>
-      </c>
-      <c r="F75" s="6">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="B76" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E76" s="7">
-        <v>63</v>
-      </c>
-      <c r="F76" s="7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="C77" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D77" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E77" s="6">
-        <v>49</v>
-      </c>
-      <c r="F77" s="6">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="B78" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D78" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="7">
-        <v>48</v>
-      </c>
-      <c r="F78" s="7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E79" s="6">
-        <v>43</v>
-      </c>
-      <c r="F79" s="6">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="10" t="s">
-        <v>310</v>
-      </c>
-      <c r="B80" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E80" s="7">
-        <v>73</v>
-      </c>
-      <c r="F80" s="7">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E81" s="6">
-        <v>58</v>
-      </c>
-      <c r="F81" s="6">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E82" s="7">
-        <v>58</v>
-      </c>
-      <c r="F82" s="7">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D83" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="6">
-        <v>42</v>
-      </c>
-      <c r="F83" s="6">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B84" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="D84" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E84" s="7">
-        <v>53</v>
-      </c>
-      <c r="F84" s="7">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D85" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E85" s="6">
-        <v>44</v>
-      </c>
-      <c r="F85" s="6">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E86" s="7">
-        <v>10</v>
-      </c>
-      <c r="F86" s="7">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="C87" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="D87" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E87" s="6">
-        <v>50</v>
-      </c>
-      <c r="F87" s="6">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="B88" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="7">
-        <v>45</v>
-      </c>
-      <c r="F88" s="7">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E89" s="6">
-        <v>52</v>
-      </c>
-      <c r="F89" s="6">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B90" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="D90" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E90" s="7">
-        <v>48</v>
-      </c>
-      <c r="F90" s="7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E91" s="6">
-        <v>58</v>
-      </c>
-      <c r="F91" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D92" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E92" s="7">
-        <v>50</v>
-      </c>
-      <c r="F92" s="7">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="6">
-        <v>53</v>
-      </c>
-      <c r="F93" s="6">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E94" s="7">
-        <v>43</v>
-      </c>
-      <c r="F94" s="7">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="C95" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E95" s="6">
-        <v>71</v>
-      </c>
-      <c r="F95" s="6">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="10" t="s">
-        <v>311</v>
-      </c>
-      <c r="B96" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C96" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="D96" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="E96" s="7">
-        <v>25</v>
-      </c>
-      <c r="F96" s="7">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>299</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="C97" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D97" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E97" s="6">
-        <v>67</v>
-      </c>
-      <c r="F97" s="6">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="C98" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D98" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="6">
-        <v>67</v>
-      </c>
-      <c r="F98" s="6">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A27" r:id="rId1" xr:uid="{0319A6B5-711A-4D71-A4F7-FF5DE7FD77A9}"/>
-    <hyperlink ref="A85" r:id="rId2" xr:uid="{0F7CE3BE-5837-4FE7-895F-A644BA5A897A}"/>
+    <hyperlink ref="A50" r:id="rId1" xr:uid="{CA3AC237-3485-4C55-B282-03270A2FA050}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3666,10 +3496,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AEBC910-98A8-C649-97B0-2A1947896846}">
-  <dimension ref="A1:K138"/>
+  <dimension ref="A1:K140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3721,489 +3551,498 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>378</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
       </c>
       <c r="E2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F2">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H2" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>24</v>
-      </c>
-      <c r="K2" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.35033885872950654</v>
+        <v>59</v>
+      </c>
+      <c r="H2">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>33</v>
+      </c>
+      <c r="I2" s="4">
+        <v>44848</v>
+      </c>
+      <c r="J2" t="s">
+        <v>146</v>
+      </c>
+      <c r="K2">
+        <f ca="1">RAND()</f>
+        <v>0.11387269118178545</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>339</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>340</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>35</v>
+        <v>188</v>
+      </c>
+      <c r="H3" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>34</v>
       </c>
       <c r="I3" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J3" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K3">
         <f ca="1">RAND()</f>
-        <v>0.59933189911394247</v>
+        <v>0.57248991786230707</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s">
-        <v>320</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>244</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E4">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="F4">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>268</v>
-      </c>
-      <c r="H4">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>31</v>
+        <v>237</v>
+      </c>
+      <c r="H4" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>16</v>
       </c>
       <c r="I4" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K4">
         <f ca="1">RAND()</f>
-        <v>0.80906491661401736</v>
+        <v>0.73312904268573942</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>365</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s">
-        <v>366</v>
+        <v>276</v>
       </c>
       <c r="C5" t="s">
-        <v>367</v>
+        <v>221</v>
       </c>
       <c r="D5" t="s">
-        <v>368</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F5">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
         <v>237</v>
       </c>
       <c r="H5" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>41</v>
-      </c>
-      <c r="K5" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.95455950915771237</v>
+        <v>20</v>
+      </c>
+      <c r="I5" s="4">
+        <v>44848</v>
+      </c>
+      <c r="J5" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5">
+        <f ca="1">RAND()</f>
+        <v>0.89051711626764196</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
       <c r="B6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>62</v>
+      </c>
+      <c r="F6">
+        <v>95</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>33</v>
       </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
-        <v>52</v>
-      </c>
-      <c r="F6">
-        <v>74</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>22</v>
-      </c>
       <c r="I6" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K6">
         <f ca="1">RAND()</f>
-        <v>4.4127202488578043E-2</v>
+        <v>0.84932672490607919</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="E7">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="F7">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>188</v>
-      </c>
-      <c r="H7" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>20</v>
+        <v>248</v>
+      </c>
+      <c r="H7">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>34</v>
       </c>
       <c r="I7" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K7">
         <f ca="1">RAND()</f>
-        <v>0.37146444911619392</v>
+        <v>0.4854227561583776</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s">
-        <v>135</v>
+        <v>380</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>381</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F8">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>237</v>
+      </c>
+      <c r="H8" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>23</v>
       </c>
       <c r="I8" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J8" t="s">
-        <v>146</v>
-      </c>
-      <c r="K8">
-        <f ca="1">RAND()</f>
-        <v>0.26545118042306481</v>
+        <v>44848</v>
+      </c>
+      <c r="K8" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.846244510784947</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>185</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
       </c>
       <c r="E9">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F9">
-        <v>110</v>
+        <v>76</v>
       </c>
       <c r="G9" t="s">
-        <v>53</v>
+        <v>269</v>
       </c>
       <c r="H9">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>36</v>
+        <v>28</v>
+      </c>
+      <c r="I9" s="4">
+        <v>44848</v>
       </c>
       <c r="K9">
         <f ca="1">RAND()</f>
-        <v>0.67357355285049803</v>
+        <v>0.55755522350054498</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
       </c>
       <c r="E10">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="F10">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s">
-        <v>261</v>
-      </c>
-      <c r="H10" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>31</v>
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>25</v>
       </c>
       <c r="I10" s="4">
-        <v>44827</v>
+        <v>44848</v>
+      </c>
+      <c r="J10" t="s">
+        <v>146</v>
       </c>
       <c r="K10">
         <f ca="1">RAND()</f>
-        <v>0.94463200362799227</v>
+        <v>0.96961131847987791</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>164</v>
+      <c r="A11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B11" t="s">
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E11">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="F11">
-        <v>154</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>165</v>
+        <v>53</v>
       </c>
       <c r="H11">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="I11" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K11">
         <f ca="1">RAND()</f>
-        <v>0.84880426085869143</v>
+        <v>0.43757699394802174</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
-        <v>240</v>
+        <v>383</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="F12">
-        <v>61</v>
+        <v>80</v>
       </c>
       <c r="G12" t="s">
         <v>237</v>
       </c>
       <c r="H12" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="I12" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K12">
-        <f ca="1">RAND()</f>
-        <v>0.64921937245043171</v>
+        <v>44848</v>
+      </c>
+      <c r="K12" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.17625871534519033</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>159</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>138</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
       </c>
       <c r="E13">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F13">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G13" t="s">
-        <v>59</v>
+        <v>227</v>
       </c>
       <c r="H13">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="I13" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J13" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K13">
         <f ca="1">RAND()</f>
-        <v>0.73694422471991894</v>
+        <v>0.93013815197277272</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>173</v>
+      <c r="A14" t="s">
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>174</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>110</v>
       </c>
       <c r="D14" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="G14" t="s">
-        <v>237</v>
+        <v>107</v>
       </c>
       <c r="H14">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I14" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K14">
         <f ca="1">RAND()</f>
-        <v>0.22086856822880674</v>
+        <v>0.27665687644343695</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="B15" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="D15" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="E15">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="F15">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="G15" t="s">
-        <v>268</v>
-      </c>
-      <c r="H15">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>47</v>
+        <v>237</v>
+      </c>
+      <c r="H15" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>18</v>
       </c>
       <c r="I15" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K15">
         <f ca="1">RAND()</f>
-        <v>0.63788341451272901</v>
+        <v>0.17502942288898837</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B16" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C16" t="s">
-        <v>138</v>
+        <v>196</v>
       </c>
       <c r="D16" t="s">
         <v>10</v>
@@ -4212,653 +4051,647 @@
         <v>45</v>
       </c>
       <c r="F16">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>45</v>
       </c>
       <c r="H16">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="I16" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K16">
         <f ca="1">RAND()</f>
-        <v>0.27363836714687462</v>
+        <v>0.8539112941929986</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>323</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>222</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>284</v>
+        <v>233</v>
       </c>
       <c r="H17">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I17" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K17">
         <f ca="1">RAND()</f>
-        <v>0.38155798907254612</v>
+        <v>0.81435149735005252</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>136</v>
       </c>
       <c r="B18" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="C18" t="s">
-        <v>105</v>
+        <v>138</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18">
-        <v>85</v>
+        <v>34</v>
       </c>
       <c r="F18">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="H18">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="I18" s="4">
-        <v>44827</v>
+        <v>44848</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
       </c>
       <c r="K18">
         <f ca="1">RAND()</f>
-        <v>0.17745913116662437</v>
+        <v>0.18844455138950289</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F19">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H19">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>37</v>
+        <v>21</v>
+      </c>
+      <c r="I19" s="4">
+        <v>44848</v>
       </c>
       <c r="K19">
         <f ca="1">RAND()</f>
-        <v>0.76949672315612161</v>
+        <v>0.56549318458734754</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>361</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>362</v>
       </c>
       <c r="C20" t="s">
         <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>229</v>
+        <v>10</v>
       </c>
       <c r="E20">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F20">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>237</v>
+      </c>
+      <c r="H20" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>38</v>
       </c>
       <c r="I20" s="4">
-        <v>44827</v>
-      </c>
-      <c r="K20">
-        <f ca="1">RAND()</f>
-        <v>0.8348414471367136</v>
+        <v>44848</v>
+      </c>
+      <c r="K20" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.68539854871077899</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="B21" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C21" t="s">
-        <v>212</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="F21">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="G21" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="H21">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I21" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K21">
         <f ca="1">RAND()</f>
-        <v>0.38691442541819943</v>
+        <v>0.82628384624829321</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>150</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C22" t="s">
-        <v>119</v>
+        <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="E22">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>59</v>
+        <v>239</v>
       </c>
       <c r="H22">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="I22" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J22" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K22">
         <f ca="1">RAND()</f>
-        <v>0.25675849405685103</v>
+        <v>0.92750460392090528</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>274</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="D23" t="s">
-        <v>373</v>
+        <v>48</v>
       </c>
       <c r="E23">
-        <v>10</v>
+        <v>145</v>
       </c>
       <c r="F23">
-        <v>71</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>237</v>
-      </c>
-      <c r="H23" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>61</v>
+        <v>45</v>
+      </c>
+      <c r="H23">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>25</v>
       </c>
       <c r="I23" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K23">
         <f ca="1">RAND()</f>
-        <v>0.65514225041518204</v>
+        <v>0.91681574012788458</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="B24" t="s">
-        <v>271</v>
+        <v>208</v>
       </c>
       <c r="C24" t="s">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="E24">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F24">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
-      </c>
-      <c r="H24" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
+        <v>268</v>
+      </c>
+      <c r="H24">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>47</v>
       </c>
       <c r="I24" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K24">
         <f ca="1">RAND()</f>
-        <v>0.27768066315883977</v>
+        <v>0.74977819934411583</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>120</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>121</v>
+        <v>65</v>
       </c>
       <c r="C25" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
         <v>10</v>
       </c>
       <c r="E25">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F25">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H25">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="I25" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J25" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K25">
         <f ca="1">RAND()</f>
-        <v>0.27634465499576621</v>
+        <v>0.62052469219678474</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>220</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="D26" t="s">
         <v>10</v>
       </c>
       <c r="E26">
+        <v>50</v>
+      </c>
+      <c r="F26">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
         <v>45</v>
       </c>
-      <c r="F26">
-        <v>92</v>
-      </c>
-      <c r="G26" t="s">
-        <v>59</v>
-      </c>
       <c r="H26">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="I26" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J26" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K26">
         <f ca="1">RAND()</f>
-        <v>0.68370126382588992</v>
+        <v>0.58154771022521423</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>349</v>
+        <v>104</v>
       </c>
       <c r="B27" t="s">
-        <v>281</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>278</v>
+        <v>105</v>
       </c>
       <c r="D27" t="s">
         <v>10</v>
       </c>
       <c r="E27">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="F27">
-        <v>92</v>
+        <v>122</v>
       </c>
       <c r="G27" t="s">
-        <v>237</v>
-      </c>
-      <c r="H27" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="H27">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>37</v>
       </c>
       <c r="I27" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K27">
         <f ca="1">RAND()</f>
-        <v>0.65595451885058709</v>
+        <v>0.8145359937595964</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B28" t="s">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>84</v>
       </c>
       <c r="D28" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="F28">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="H28" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="I28" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K28">
         <f ca="1">RAND()</f>
-        <v>0.77458826991772756</v>
+        <v>0.72519214471763171</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>205</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="D29" t="s">
         <v>10</v>
       </c>
       <c r="E29">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F29">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G29" t="s">
+        <v>269</v>
+      </c>
+      <c r="H29">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>31</v>
+      </c>
+      <c r="I29" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K29">
+        <f ca="1">RAND()</f>
+        <v>0.47151571033715411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="s">
+        <v>303</v>
+      </c>
+      <c r="E30">
+        <v>43</v>
+      </c>
+      <c r="F30">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
         <v>237</v>
       </c>
-      <c r="H29" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
-      </c>
-      <c r="I29" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K29">
-        <f ca="1">RAND()</f>
-        <v>0.97526035843516856</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>156</v>
-      </c>
-      <c r="B30" t="s">
-        <v>157</v>
-      </c>
-      <c r="C30" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="E30">
-        <v>70</v>
-      </c>
-      <c r="F30">
-        <v>102</v>
-      </c>
-      <c r="G30" t="s">
-        <v>59</v>
-      </c>
       <c r="H30">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="I30" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J30" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K30">
         <f ca="1">RAND()</f>
-        <v>0.89213469036603232</v>
+        <v>0.95622689587510157</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>376</v>
       </c>
       <c r="E31">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="G31" t="s">
-        <v>188</v>
+        <v>251</v>
       </c>
       <c r="H31">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="I31" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K31">
         <f ca="1">RAND()</f>
-        <v>2.765023886396567E-2</v>
+        <v>0.27346472667637867</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="B32" t="s">
-        <v>175</v>
+        <v>201</v>
       </c>
       <c r="C32" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="D32" t="s">
         <v>10</v>
       </c>
       <c r="E32">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F32">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G32" t="s">
-        <v>267</v>
+        <v>177</v>
       </c>
       <c r="H32">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="I32" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K32">
         <f ca="1">RAND()</f>
-        <v>0.88226188789194682</v>
+        <v>0.33546719271220005</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="D33" t="s">
         <v>10</v>
       </c>
       <c r="E33">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F33">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="H33">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I33" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="K33">
         <f ca="1">RAND()</f>
-        <v>0.36134733743688796</v>
+        <v>0.24528647013539573</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
         <v>10</v>
       </c>
       <c r="E34">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F34">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="G34" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H34">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="I34" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="K34">
         <f ca="1">RAND()</f>
-        <v>0.16783587245202203</v>
+        <v>0.60493864419995669</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="D35" t="s">
         <v>10</v>
@@ -4867,137 +4700,146 @@
         <v>45</v>
       </c>
       <c r="F35">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="H35">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="I35" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K35">
         <f ca="1">RAND()</f>
-        <v>0.93244440490410818</v>
+        <v>4.2168572584171393E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="B36" t="s">
-        <v>30</v>
+        <v>350</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="E36">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="G36" t="s">
-        <v>237</v>
-      </c>
-      <c r="H36" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>72</v>
-      </c>
-      <c r="K36" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.84684583021262916</v>
+        <v>242</v>
+      </c>
+      <c r="H36">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>25</v>
+      </c>
+      <c r="I36" s="4">
+        <v>44848</v>
+      </c>
+      <c r="J36" t="s">
+        <v>351</v>
+      </c>
+      <c r="K36">
+        <f ca="1">RAND()</f>
+        <v>0.43513236852585424</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>369</v>
+        <v>332</v>
       </c>
       <c r="B37" t="s">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>253</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E37">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="F37">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="G37" t="s">
-        <v>237</v>
+        <v>188</v>
       </c>
       <c r="H37" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>27</v>
-      </c>
-      <c r="K37" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.94512214043358511</v>
+        <v>30</v>
+      </c>
+      <c r="I37" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K37">
+        <f ca="1">RAND()</f>
+        <v>0.89392129070323145</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>271</v>
       </c>
       <c r="C38" t="s">
+        <v>75</v>
+      </c>
+      <c r="D38" t="s">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>71</v>
+      </c>
+      <c r="F38">
+        <v>92</v>
+      </c>
+      <c r="G38" t="s">
+        <v>272</v>
+      </c>
+      <c r="H38" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>21</v>
       </c>
-      <c r="D38" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38">
-        <v>45</v>
-      </c>
-      <c r="F38">
-        <v>75</v>
-      </c>
-      <c r="G38" t="s">
-        <v>262</v>
-      </c>
-      <c r="H38">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
-      </c>
       <c r="I38" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K38">
         <f ca="1">RAND()</f>
-        <v>0.28414670118533691</v>
+        <v>0.59342341120815878</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C39" t="s">
-        <v>221</v>
+        <v>162</v>
       </c>
       <c r="D39" t="s">
         <v>10</v>
       </c>
       <c r="E39">
+        <v>32</v>
+      </c>
+      <c r="F39">
         <v>52</v>
-      </c>
-      <c r="F39">
-        <v>72</v>
       </c>
       <c r="G39" t="s">
         <v>237</v>
@@ -5007,736 +4849,742 @@
         <v>20</v>
       </c>
       <c r="I39" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J39" t="s">
-        <v>346</v>
+        <v>44848</v>
       </c>
       <c r="K39">
         <f ca="1">RAND()</f>
-        <v>0.31435991770543137</v>
+        <v>6.891904292484996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>254</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
       </c>
       <c r="E40">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="F40">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
-      </c>
-      <c r="H40">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>237</v>
+      </c>
+      <c r="H40" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>27</v>
+      </c>
+      <c r="I40" s="4">
+        <v>44848</v>
       </c>
       <c r="K40">
         <f ca="1">RAND()</f>
-        <v>0.39597669151384762</v>
+        <v>0.72696436820050103</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>311</v>
-      </c>
-      <c r="B41" t="s">
-        <v>210</v>
+      <c r="A41" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>167</v>
       </c>
       <c r="C41" t="s">
-        <v>209</v>
+        <v>138</v>
       </c>
       <c r="D41" t="s">
-        <v>303</v>
+        <v>168</v>
       </c>
       <c r="E41">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>58</v>
+        <v>96</v>
       </c>
       <c r="G41" t="s">
-        <v>264</v>
+        <v>279</v>
       </c>
       <c r="H41">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="I41" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K41">
         <f ca="1">RAND()</f>
-        <v>0.26342493639501974</v>
+        <v>0.91709404784814219</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D42" t="s">
         <v>10</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F42">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
       </c>
       <c r="H42">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="I42" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="J42" t="s">
         <v>146</v>
       </c>
       <c r="K42">
         <f ca="1">RAND()</f>
-        <v>0.93899369703384672</v>
+        <v>0.95402226630375131</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>80</v>
+      <c r="A43" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E43">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="F43">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="G43" t="s">
-        <v>59</v>
+        <v>165</v>
       </c>
       <c r="H43">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I43" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K43">
         <f ca="1">RAND()</f>
-        <v>0.89529075026558091</v>
+        <v>0.21645551500569982</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>293</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s">
-        <v>186</v>
+        <v>274</v>
       </c>
       <c r="C44" t="s">
-        <v>187</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>373</v>
       </c>
       <c r="E44">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F44">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="G44" t="s">
-        <v>188</v>
-      </c>
-      <c r="H44">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>20</v>
+        <v>237</v>
+      </c>
+      <c r="H44" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>61</v>
       </c>
       <c r="I44" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K44">
         <f ca="1">RAND()</f>
-        <v>1.8285630244681106E-2</v>
+        <v>0.87716350646550523</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>317</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>157</v>
       </c>
       <c r="C45" t="s">
-        <v>212</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E45">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="F45">
-        <v>173</v>
+        <v>102</v>
       </c>
       <c r="G45" t="s">
-        <v>237</v>
-      </c>
-      <c r="H45" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>59</v>
+      </c>
+      <c r="H45">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>32</v>
       </c>
       <c r="I45" s="4">
-        <v>44833</v>
+        <v>44848</v>
+      </c>
+      <c r="J45" t="s">
+        <v>146</v>
       </c>
       <c r="K45">
         <f ca="1">RAND()</f>
-        <v>0.18445564763474609</v>
+        <v>0.56841198185208341</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>389</v>
       </c>
       <c r="C46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>230</v>
+        <v>179</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
       </c>
       <c r="E46">
-        <v>162</v>
+        <v>67</v>
       </c>
       <c r="F46">
-        <v>211</v>
+        <v>99</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
-      </c>
-      <c r="H46">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>49</v>
-      </c>
-      <c r="K46">
-        <f ca="1">RAND()</f>
-        <v>0.58814068227443572</v>
+        <v>237</v>
+      </c>
+      <c r="H46" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>32</v>
+      </c>
+      <c r="I46" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K46" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.68462101134647257</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="D47" t="s">
         <v>10</v>
       </c>
       <c r="E47">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F47">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G47" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="H47">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="I47" s="4">
-        <v>44834</v>
+        <v>44848</v>
+      </c>
+      <c r="J47" t="s">
+        <v>146</v>
       </c>
       <c r="K47">
         <f ca="1">RAND()</f>
-        <v>0.11642543579828468</v>
+        <v>0.56292136366331891</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>160</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
-        <v>161</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s">
-        <v>162</v>
+        <v>367</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>368</v>
       </c>
       <c r="E48">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F48">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
-      </c>
-      <c r="H48">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>60</v>
+        <v>237</v>
+      </c>
+      <c r="H48" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>41</v>
       </c>
       <c r="I48" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J48" t="s">
-        <v>146</v>
-      </c>
-      <c r="K48">
-        <f ca="1">RAND()</f>
-        <v>0.73659753421377017</v>
+        <v>44848</v>
+      </c>
+      <c r="K48" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.36477444734703368</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>49</v>
+      <c r="A49" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>50</v>
+        <v>172</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="D49" t="s">
         <v>10</v>
       </c>
       <c r="E49">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F49">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="H49">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="I49" s="4">
+        <v>44848</v>
       </c>
       <c r="K49">
         <f ca="1">RAND()</f>
-        <v>0.81474991803029739</v>
+        <v>0.95478426137861949</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="D50" t="s">
         <v>10</v>
       </c>
       <c r="E50">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F50">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G50" t="s">
-        <v>177</v>
+        <v>45</v>
       </c>
       <c r="H50">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="I50" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K50">
         <f ca="1">RAND()</f>
-        <v>0.5171784117464675</v>
+        <v>0.82379909812291852</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C51" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="D51" t="s">
         <v>10</v>
       </c>
       <c r="E51">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="F51">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="H51">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I51" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="K51">
         <f ca="1">RAND()</f>
-        <v>0.98253908832877879</v>
+        <v>8.0382116861622332E-2</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B52" t="s">
-        <v>213</v>
+        <v>265</v>
       </c>
       <c r="C52" t="s">
-        <v>37</v>
+        <v>266</v>
       </c>
       <c r="D52" t="s">
-        <v>360</v>
+        <v>10</v>
       </c>
       <c r="E52">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F52">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
-        <v>239</v>
-      </c>
-      <c r="H52">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>60</v>
+        <v>188</v>
+      </c>
+      <c r="H52" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>20</v>
       </c>
       <c r="I52" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K52">
         <f ca="1">RAND()</f>
-        <v>0.52157546067293958</v>
+        <v>0.5871471977452738</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>186</v>
       </c>
       <c r="C53" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D53" t="s">
         <v>10</v>
       </c>
       <c r="E53">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="F53">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>237</v>
-      </c>
-      <c r="H53" s="5">
+        <v>188</v>
+      </c>
+      <c r="H53">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>20</v>
       </c>
       <c r="I53" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K53">
         <f ca="1">RAND()</f>
-        <v>0.64684992758041782</v>
+        <v>0.82960713601668901</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>386</v>
+        <v>315</v>
       </c>
       <c r="B54" t="s">
-        <v>387</v>
+        <v>216</v>
       </c>
       <c r="C54" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E54">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="F54">
-        <v>83</v>
+        <v>156</v>
       </c>
       <c r="G54" t="s">
         <v>237</v>
       </c>
-      <c r="H54" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
-      </c>
-      <c r="K54" s="5">
-        <f ca="1">RAND()</f>
-        <v>2.8073190800468328E-3</v>
+      <c r="H54">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>31</v>
+      </c>
+      <c r="I54" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K54">
+        <f ca="1">RAND()</f>
+        <v>0.57911594282226464</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>141</v>
+        <v>317</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>218</v>
       </c>
       <c r="C55" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="D55" t="s">
         <v>10</v>
       </c>
       <c r="E55">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F55">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>284</v>
       </c>
       <c r="H55">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>33</v>
       </c>
       <c r="I55" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J55" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K55">
         <f ca="1">RAND()</f>
-        <v>0.20338396193539521</v>
+        <v>0.66874446931196474</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="B56" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="C56" t="s">
-        <v>207</v>
+        <v>294</v>
       </c>
       <c r="D56" t="s">
         <v>10</v>
       </c>
       <c r="E56">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F56">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="G56" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="H56">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I56" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K56">
         <f ca="1">RAND()</f>
-        <v>0.46803628070321279</v>
+        <v>0.90036756483587466</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="D57" t="s">
         <v>10</v>
       </c>
       <c r="E57">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="F57">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>227</v>
+        <v>53</v>
       </c>
       <c r="H57">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="I57" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K57">
         <f ca="1">RAND()</f>
-        <v>0.80989885407030759</v>
+        <v>0.49968689926391485</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>152</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C58" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
         <v>10</v>
       </c>
       <c r="E58">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="F58">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G58" t="s">
-        <v>59</v>
+        <v>242</v>
       </c>
       <c r="H58">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I58" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J58" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K58">
         <f ca="1">RAND()</f>
-        <v>0.81266997505213934</v>
+        <v>3.8931362444759809E-2</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>88</v>
+        <v>392</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>393</v>
       </c>
       <c r="C59" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="D59" t="s">
         <v>10</v>
       </c>
       <c r="E59">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F59">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="G59" t="s">
-        <v>59</v>
-      </c>
-      <c r="H59">
+        <v>394</v>
+      </c>
+      <c r="H59" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>21</v>
       </c>
       <c r="I59" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K59">
-        <f ca="1">RAND()</f>
-        <v>0.45351796788960863</v>
+        <v>44848</v>
+      </c>
+      <c r="K59" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.68530492417534494</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>298</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>193</v>
+        <v>74</v>
       </c>
       <c r="C60" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E60">
-        <v>65</v>
+        <v>176</v>
       </c>
       <c r="F60">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="G60" t="s">
         <v>45</v>
       </c>
       <c r="H60">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="I60" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="K60">
         <f ca="1">RAND()</f>
-        <v>0.31873673171365002</v>
+        <v>0.79760688242247546</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>361</v>
+        <v>144</v>
       </c>
       <c r="B61" t="s">
-        <v>362</v>
+        <v>145</v>
       </c>
       <c r="C61" t="s">
         <v>43</v>
@@ -5745,765 +5593,795 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="F61">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="G61" t="s">
-        <v>237</v>
-      </c>
-      <c r="H61" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>38</v>
-      </c>
-      <c r="K61" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.15319956306151539</v>
+        <v>59</v>
+      </c>
+      <c r="H61">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>47</v>
+      </c>
+      <c r="I61" s="4">
+        <v>44848</v>
+      </c>
+      <c r="J61" t="s">
+        <v>146</v>
+      </c>
+      <c r="K61">
+        <f ca="1">RAND()</f>
+        <v>0.9078505846607029</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>289</v>
-      </c>
-      <c r="B62" t="s">
-        <v>181</v>
+      <c r="A62" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D62" t="s">
         <v>10</v>
       </c>
       <c r="E62">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="F62">
-        <v>83</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>165</v>
       </c>
       <c r="H62">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I62" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K62">
         <f ca="1">RAND()</f>
-        <v>0.5483542006992761</v>
+        <v>0.66993071696273998</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>115</v>
       </c>
       <c r="C63" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
         <v>10</v>
       </c>
       <c r="E63">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F63">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G63" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H63">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>34</v>
+        <v>23</v>
+      </c>
+      <c r="I63" s="4">
+        <v>44848</v>
       </c>
       <c r="K63">
         <f ca="1">RAND()</f>
-        <v>0.56334481313975782</v>
+        <v>0.11006593537463039</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="C64" t="s">
-        <v>187</v>
+        <v>90</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="E64">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="F64">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="H64">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="I64" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K64">
         <f ca="1">RAND()</f>
-        <v>0.47561462588589032</v>
+        <v>0.12088143884798086</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>7</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E65">
-        <v>32</v>
+        <v>215</v>
       </c>
       <c r="F65">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="G65" t="s">
-        <v>233</v>
+        <v>15</v>
       </c>
       <c r="H65">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="I65" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K65">
         <f ca="1">RAND()</f>
-        <v>0.61649314817169543</v>
+        <v>0.69101045961956631</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>122</v>
+        <v>312</v>
       </c>
       <c r="B66" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="D66" t="s">
         <v>10</v>
       </c>
       <c r="E66">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="F66">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>234</v>
       </c>
       <c r="H66">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="I66" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J66" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K66">
         <f ca="1">RAND()</f>
-        <v>9.8466460984872661E-2</v>
+        <v>0.51586817019007813</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C67" t="s">
         <v>212</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
       <c r="E67">
-        <v>41</v>
+        <v>140</v>
       </c>
       <c r="F67">
-        <v>59</v>
+        <v>173</v>
       </c>
       <c r="G67" t="s">
-        <v>234</v>
-      </c>
-      <c r="H67">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>18</v>
+        <v>237</v>
+      </c>
+      <c r="H67" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>33</v>
       </c>
       <c r="I67" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K67">
         <f ca="1">RAND()</f>
-        <v>0.24513292775830531</v>
+        <v>0.33117749787442974</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="D68" t="s">
         <v>10</v>
       </c>
       <c r="E68">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F68">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G68" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H68">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="I68" s="4">
+        <v>44848</v>
       </c>
       <c r="K68">
         <f ca="1">RAND()</f>
-        <v>0.50560526834261865</v>
+        <v>0.26772064889805958</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>41</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s">
-        <v>42</v>
+        <v>370</v>
       </c>
       <c r="C69" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="D69" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F69">
-        <v>214</v>
+        <v>84</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
-      </c>
-      <c r="H69">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>204</v>
-      </c>
-      <c r="K69">
-        <f ca="1">RAND()</f>
-        <v>0.36632046364533977</v>
+        <v>237</v>
+      </c>
+      <c r="H69" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>27</v>
+      </c>
+      <c r="I69" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K69" s="5">
+        <f ca="1">RAND()</f>
+        <v>3.7329201765751829E-2</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" s="3" t="s">
-        <v>171</v>
+      <c r="A70" t="s">
+        <v>390</v>
       </c>
       <c r="B70" t="s">
-        <v>172</v>
+        <v>391</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>212</v>
       </c>
       <c r="D70" t="s">
         <v>10</v>
       </c>
       <c r="E70">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="F70">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="G70" t="s">
-        <v>165</v>
-      </c>
-      <c r="H70">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="H70" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>33</v>
       </c>
       <c r="I70" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K70">
-        <f ca="1">RAND()</f>
-        <v>0.74586042296463129</v>
+        <v>44848</v>
+      </c>
+      <c r="K70" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.73153021657570061</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>296</v>
+        <v>348</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="C71" t="s">
-        <v>190</v>
+        <v>278</v>
       </c>
       <c r="D71" t="s">
         <v>10</v>
       </c>
       <c r="E71">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="F71">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="G71" t="s">
-        <v>242</v>
-      </c>
-      <c r="H71">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>20</v>
+        <v>237</v>
+      </c>
+      <c r="H71" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>30</v>
       </c>
       <c r="I71" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K71">
         <f ca="1">RAND()</f>
-        <v>0.47713754562117272</v>
+        <v>0.877295303723724</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>46</v>
+        <v>386</v>
       </c>
       <c r="B72" t="s">
-        <v>47</v>
+        <v>387</v>
       </c>
       <c r="C72" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E72">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="F72">
-        <v>170</v>
+        <v>83</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
-      </c>
-      <c r="H72">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>25</v>
+        <v>237</v>
+      </c>
+      <c r="H72" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>21</v>
       </c>
       <c r="I72" s="4">
-        <v>44827</v>
-      </c>
-      <c r="K72">
-        <f ca="1">RAND()</f>
-        <v>0.95885673165843677</v>
+        <v>44848</v>
+      </c>
+      <c r="K72" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.28371465991009981</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="D73" t="s">
         <v>10</v>
       </c>
       <c r="E73">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F73">
-        <v>108</v>
+        <v>76</v>
       </c>
       <c r="G73" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="H73">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>42</v>
+        <v>18</v>
+      </c>
+      <c r="I73" s="4">
+        <v>44848</v>
+      </c>
+      <c r="J73" t="s">
+        <v>146</v>
       </c>
       <c r="K73">
         <f ca="1">RAND()</f>
-        <v>0.77511991000817382</v>
+        <v>0.37079088046404785</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>348</v>
+        <v>19</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="D74" t="s">
         <v>10</v>
       </c>
       <c r="E74">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F74">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
-      </c>
-      <c r="H74" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>21</v>
       </c>
       <c r="I74" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K74">
         <f ca="1">RAND()</f>
-        <v>0.26479893255209108</v>
+        <v>2.808278750097648E-2</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>73</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>281</v>
       </c>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="D75" t="s">
         <v>10</v>
       </c>
       <c r="E75">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F75">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G75" t="s">
-        <v>283</v>
-      </c>
-      <c r="H75">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>23</v>
+        <v>237</v>
+      </c>
+      <c r="H75" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>30</v>
       </c>
       <c r="I75" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="K75">
         <f ca="1">RAND()</f>
-        <v>0.97668072972715869</v>
+        <v>6.6473675930323606E-2</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>158</v>
       </c>
       <c r="B76" t="s">
-        <v>61</v>
+        <v>159</v>
       </c>
       <c r="C76" t="s">
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D76" t="s">
         <v>10</v>
       </c>
       <c r="E76">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F76">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="G76" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H76">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="I76" s="4">
+        <v>44848</v>
+      </c>
+      <c r="J76" t="s">
+        <v>146</v>
       </c>
       <c r="K76">
         <f ca="1">RAND()</f>
-        <v>0.10063345479080787</v>
+        <v>3.8578591987743605E-2</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B77" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>124</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
         <v>10</v>
       </c>
       <c r="E77">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F77">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>177</v>
       </c>
       <c r="H77">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="I77" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K77">
         <f ca="1">RAND()</f>
-        <v>0.31421729818880317</v>
+        <v>0.57605645666848104</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>375</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
+        <v>374</v>
       </c>
       <c r="C78" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
         <v>10</v>
       </c>
       <c r="E78">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F78">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s">
-        <v>270</v>
-      </c>
-      <c r="H78">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>31</v>
+        <v>237</v>
+      </c>
+      <c r="H78" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>34</v>
       </c>
       <c r="I78" s="4">
-        <v>44834</v>
-      </c>
-      <c r="K78">
-        <f ca="1">RAND()</f>
-        <v>0.14327394150657458</v>
+        <v>44848</v>
+      </c>
+      <c r="K78" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.97406318477997456</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>338</v>
+        <v>377</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>221</v>
       </c>
       <c r="D79" t="s">
         <v>10</v>
       </c>
       <c r="E79">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F79">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s">
         <v>237</v>
       </c>
       <c r="H79" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="I79" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K79">
-        <f ca="1">RAND()</f>
-        <v>0.21633187374422269</v>
+        <v>44848</v>
+      </c>
+      <c r="K79" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.35998926887486948</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>10</v>
+      </c>
+      <c r="E80">
         <v>43</v>
       </c>
-      <c r="D80" t="s">
-        <v>10</v>
-      </c>
-      <c r="E80">
-        <v>58</v>
-      </c>
       <c r="F80">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G80" t="s">
-        <v>242</v>
-      </c>
-      <c r="H80" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
+        <v>45</v>
+      </c>
+      <c r="H80">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>60</v>
       </c>
       <c r="I80" s="4">
-        <v>44834</v>
+        <v>44848</v>
+      </c>
+      <c r="J80" t="s">
+        <v>146</v>
       </c>
       <c r="K80">
         <f ca="1">RAND()</f>
-        <v>0.35804002706418914</v>
+        <v>0.92010485404552611</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>301</v>
+        <v>147</v>
       </c>
       <c r="B81" t="s">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="C81" t="s">
-        <v>43</v>
+        <v>149</v>
       </c>
       <c r="D81" t="s">
         <v>10</v>
       </c>
       <c r="E81">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F81">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G81" t="s">
         <v>45</v>
       </c>
       <c r="H81">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I81" s="4">
-        <v>44834</v>
+        <v>44848</v>
+      </c>
+      <c r="J81" t="s">
+        <v>146</v>
       </c>
       <c r="K81">
         <f ca="1">RAND()</f>
-        <v>0.77896675221643585</v>
+        <v>0.45563813355861238</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>299</v>
+        <v>111</v>
       </c>
       <c r="B82" t="s">
-        <v>194</v>
+        <v>112</v>
       </c>
       <c r="C82" t="s">
-        <v>183</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
         <v>10</v>
       </c>
       <c r="E82">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="F82">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="H82">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I82" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K82">
         <f ca="1">RAND()</f>
-        <v>3.0193604581639444E-2</v>
+        <v>0.47191074767813768</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="B83" t="s">
-        <v>356</v>
+        <v>36</v>
       </c>
       <c r="C83" t="s">
-        <v>357</v>
+        <v>37</v>
       </c>
       <c r="D83" t="s">
         <v>10</v>
       </c>
       <c r="E83">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="F83">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="G83" t="s">
-        <v>15</v>
-      </c>
-      <c r="H83" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>23</v>
+        <v>199</v>
+      </c>
+      <c r="H83">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>33</v>
       </c>
       <c r="I83" s="4">
-        <v>44834</v>
-      </c>
-      <c r="K83" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.9606166460594312</v>
+        <v>44841</v>
+      </c>
+      <c r="K83">
+        <f ca="1">RAND()</f>
+        <v>0.80243913849972026</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B84" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C84" t="s">
         <v>183</v>
@@ -6512,273 +6390,270 @@
         <v>10</v>
       </c>
       <c r="E84">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F84">
         <v>76</v>
       </c>
       <c r="G84" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="H84">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I84" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K84">
         <f ca="1">RAND()</f>
-        <v>9.1403041448564259E-2</v>
+        <v>0.57664024658608437</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>333</v>
+        <v>91</v>
       </c>
       <c r="B85" t="s">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="C85" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="D85" t="s">
         <v>10</v>
       </c>
       <c r="E85">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="F85">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G85" t="s">
-        <v>237</v>
-      </c>
-      <c r="H85" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>27</v>
+        <v>188</v>
+      </c>
+      <c r="H85">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>17</v>
       </c>
       <c r="I85" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K85">
         <f ca="1">RAND()</f>
-        <v>0.17874638167038781</v>
+        <v>1.4542458880005826E-2</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>286</v>
       </c>
       <c r="B86" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="C86" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E86">
-        <v>125</v>
+        <v>70</v>
       </c>
       <c r="F86">
-        <v>156</v>
+        <v>91</v>
       </c>
       <c r="G86" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="H86">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I86" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K86">
         <f ca="1">RAND()</f>
-        <v>0.93237354841876119</v>
+        <v>0.3171223449964633</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>80</v>
       </c>
       <c r="C87" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D87" t="s">
         <v>10</v>
       </c>
       <c r="E87">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="F87">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G87" t="s">
-        <v>177</v>
+        <v>59</v>
       </c>
       <c r="H87">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I87" s="4">
-        <v>44827</v>
+        <v>44841</v>
       </c>
       <c r="K87">
         <f ca="1">RAND()</f>
-        <v>0.5836537138399428</v>
+        <v>0.89031054942817478</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B88" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>143</v>
       </c>
       <c r="D88" t="s">
         <v>10</v>
       </c>
       <c r="E88">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F88">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="G88" t="s">
-        <v>263</v>
+        <v>45</v>
       </c>
       <c r="H88">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I88" s="4">
-        <v>44827</v>
+        <v>44841</v>
       </c>
       <c r="K88">
         <f ca="1">RAND()</f>
-        <v>0.54728324012510043</v>
+        <v>0.36095123092340253</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D89" t="s">
         <v>10</v>
       </c>
       <c r="E89">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="F89">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="G89" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="H89">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>23</v>
-      </c>
-      <c r="I89" s="4">
-        <v>44834</v>
+        <v>32</v>
       </c>
       <c r="K89">
         <f ca="1">RAND()</f>
-        <v>3.3724206538484514E-2</v>
+        <v>0.87570145020252299</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>308</v>
+        <v>85</v>
       </c>
       <c r="B90" t="s">
-        <v>205</v>
+        <v>86</v>
       </c>
       <c r="C90" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D90" t="s">
         <v>10</v>
       </c>
       <c r="E90">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F90">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G90" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H90">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>31</v>
       </c>
       <c r="I90" s="4">
-        <v>44827</v>
+        <v>44841</v>
       </c>
       <c r="K90">
         <f ca="1">RAND()</f>
-        <v>0.87097720720360494</v>
+        <v>0.53889900387068901</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="D91" t="s">
         <v>10</v>
       </c>
       <c r="E91">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F91">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G91" t="s">
         <v>45</v>
       </c>
       <c r="H91">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="I91" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K91">
         <f ca="1">RAND()</f>
-        <v>0.96653222888715429</v>
+        <v>0.49094530619982868</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="C92" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="D92" t="s">
         <v>10</v>
@@ -6787,715 +6662,712 @@
         <v>44</v>
       </c>
       <c r="F92">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="G92" t="s">
-        <v>280</v>
+        <v>59</v>
       </c>
       <c r="H92">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I92" s="4">
-        <v>44827</v>
+        <v>44841</v>
+      </c>
+      <c r="J92" t="s">
+        <v>146</v>
       </c>
       <c r="K92">
         <f ca="1">RAND()</f>
-        <v>0.60852864746809365</v>
+        <v>0.13348167465268168</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="B93" t="s">
-        <v>217</v>
+        <v>197</v>
       </c>
       <c r="C93" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="D93" t="s">
         <v>10</v>
       </c>
       <c r="E93">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="F93">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="H93">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="I93" s="4">
-        <v>44827</v>
+        <v>44841</v>
       </c>
       <c r="K93">
         <f ca="1">RAND()</f>
-        <v>0.35844482743835449</v>
+        <v>7.9468846776218682E-2</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>16</v>
+        <v>327</v>
       </c>
       <c r="B94" t="s">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="C94" t="s">
-        <v>18</v>
+        <v>236</v>
       </c>
       <c r="D94" t="s">
         <v>10</v>
       </c>
       <c r="E94">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F94">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="G94" t="s">
-        <v>15</v>
-      </c>
-      <c r="H94">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>17</v>
+        <v>237</v>
+      </c>
+      <c r="H94" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>29</v>
       </c>
       <c r="I94" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K94">
         <f ca="1">RAND()</f>
-        <v>0.94433892308950529</v>
+        <v>0.67066217646407522</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>330</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>245</v>
       </c>
       <c r="C95" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="D95" t="s">
         <v>10</v>
       </c>
       <c r="E95">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F95">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
-      </c>
-      <c r="H95">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>46</v>
+        <v>237</v>
+      </c>
+      <c r="H95" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>28</v>
       </c>
       <c r="I95" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J95" t="s">
-        <v>146</v>
+        <v>44848</v>
       </c>
       <c r="K95">
         <f ca="1">RAND()</f>
-        <v>0.81279471231978162</v>
+        <v>0.64289151917100718</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>54</v>
       </c>
       <c r="B96" t="s">
-        <v>115</v>
+        <v>55</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" t="s">
-        <v>10</v>
+        <v>57</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="E96">
+        <v>162</v>
+      </c>
+      <c r="F96">
+        <v>211</v>
+      </c>
+      <c r="G96" t="s">
+        <v>53</v>
+      </c>
+      <c r="H96">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>49</v>
       </c>
-      <c r="F96">
-        <v>72</v>
-      </c>
-      <c r="G96" t="s">
-        <v>45</v>
-      </c>
-      <c r="H96">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>23</v>
-      </c>
-      <c r="I96" s="4">
-        <v>44834</v>
-      </c>
       <c r="K96">
         <f ca="1">RAND()</f>
-        <v>0.52143904967202515</v>
+        <v>0.85960541389255829</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
-        <v>236</v>
+        <v>43</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>358</v>
       </c>
       <c r="E97">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="F97">
-        <v>70</v>
+        <v>202</v>
       </c>
       <c r="G97" t="s">
         <v>237</v>
       </c>
       <c r="H97" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
-      </c>
-      <c r="I97" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K97">
-        <f ca="1">RAND()</f>
-        <v>0.26603530507835149</v>
+        <v>192</v>
+      </c>
+      <c r="K97" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.50900019649419648</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>125</v>
+        <v>56</v>
       </c>
       <c r="B98" t="s">
-        <v>126</v>
+        <v>58</v>
       </c>
       <c r="C98" t="s">
-        <v>127</v>
+        <v>57</v>
       </c>
       <c r="D98" t="s">
         <v>10</v>
       </c>
       <c r="E98">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F98">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G98" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="H98">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>34</v>
-      </c>
-      <c r="I98" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J98" t="s">
-        <v>146</v>
+        <v>37</v>
       </c>
       <c r="K98">
         <f ca="1">RAND()</f>
-        <v>1.4139341155278595E-2</v>
+        <v>0.61249550366430516</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>35</v>
+        <v>94</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="C99" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="E99">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F99">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="G99" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="H99">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="I99" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K99">
         <f ca="1">RAND()</f>
-        <v>0.8407790958928788</v>
+        <v>0.92332338024370153</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
       <c r="B100" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
         <v>10</v>
       </c>
       <c r="E100">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F100">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G100" t="s">
         <v>237</v>
       </c>
       <c r="H100" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
-      </c>
-      <c r="K100" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.14951320320218242</v>
+        <v>41</v>
+      </c>
+      <c r="I100" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K100">
+        <f ca="1">RAND()</f>
+        <v>2.0532237401409414E-3</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B101" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="C101" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D101" t="s">
         <v>10</v>
       </c>
       <c r="E101">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F101">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="G101" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="H101">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I101" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K101">
         <f ca="1">RAND()</f>
-        <v>0.75245894147433834</v>
+        <v>0.54999403615109632</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>167</v>
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" t="s">
+        <v>33</v>
       </c>
       <c r="C102" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="D102" t="s">
-        <v>168</v>
+        <v>10</v>
       </c>
       <c r="E102">
-        <v>10</v>
+        <v>52</v>
       </c>
       <c r="F102">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="G102" t="s">
-        <v>279</v>
+        <v>28</v>
       </c>
       <c r="H102">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="I102" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K102">
         <f ca="1">RAND()</f>
-        <v>0.48639989251580429</v>
+        <v>0.46685887269491011</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>106</v>
+        <v>307</v>
       </c>
       <c r="B103" t="s">
-        <v>109</v>
+        <v>203</v>
       </c>
       <c r="C103" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
         <v>10</v>
       </c>
       <c r="E103">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F103">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G103" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="H103">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="I103" s="4">
-        <v>44833</v>
+        <v>44848</v>
       </c>
       <c r="K103">
         <f ca="1">RAND()</f>
-        <v>0.91177929263805402</v>
+        <v>0.18347981220825493</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>305</v>
+        <v>316</v>
       </c>
       <c r="B104" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="C104" t="s">
-        <v>183</v>
+        <v>87</v>
       </c>
       <c r="D104" t="s">
         <v>10</v>
       </c>
       <c r="E104">
-        <v>53</v>
+        <v>40</v>
       </c>
       <c r="F104">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="G104" t="s">
-        <v>177</v>
+        <v>257</v>
       </c>
       <c r="H104">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I104" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K104">
         <f ca="1">RAND()</f>
-        <v>0.55935041703703137</v>
+        <v>0.29237504474849496</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="B105" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="D105" t="s">
         <v>10</v>
       </c>
       <c r="E105">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F105">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G105" t="s">
-        <v>237</v>
+        <v>15</v>
       </c>
       <c r="H105" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
-      </c>
-      <c r="K105" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.1229414295293132</v>
+        <v>27</v>
+      </c>
+      <c r="I105" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K105">
+        <f ca="1">RAND()</f>
+        <v>0.67155356474752725</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>25</v>
+      <c r="A106" t="s">
+        <v>355</v>
       </c>
       <c r="B106" t="s">
-        <v>26</v>
+        <v>356</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>357</v>
       </c>
       <c r="D106" t="s">
         <v>10</v>
       </c>
       <c r="E106">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F106">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="G106" t="s">
-        <v>28</v>
-      </c>
-      <c r="H106">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>15</v>
+      </c>
+      <c r="H106" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>23</v>
       </c>
       <c r="I106" s="4">
-        <v>44833</v>
-      </c>
-      <c r="K106">
-        <f ca="1">RAND()</f>
-        <v>0.12452424384703598</v>
+        <v>44841</v>
+      </c>
+      <c r="K106" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.21124280421883657</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B107" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C107" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D107" t="s">
         <v>10</v>
       </c>
       <c r="E107">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F107">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G107" t="s">
         <v>45</v>
       </c>
       <c r="H107">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="I107" s="4">
-        <v>44834</v>
+        <v>44841</v>
+      </c>
+      <c r="J107" t="s">
+        <v>146</v>
       </c>
       <c r="K107">
         <f ca="1">RAND()</f>
-        <v>0.3672928100503331</v>
+        <v>0.85220756279721432</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="B108" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="D108" t="s">
         <v>10</v>
       </c>
       <c r="E108">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="F108">
-        <v>89</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="H108">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="I108" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K108">
         <f ca="1">RAND()</f>
-        <v>0.26032949978494313</v>
+        <v>0.22013955790889583</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="B109" t="s">
-        <v>148</v>
+        <v>74</v>
       </c>
       <c r="C109" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="D109" t="s">
         <v>10</v>
       </c>
       <c r="E109">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="F109">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="G109" t="s">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="H109">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I109" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J109" t="s">
-        <v>146</v>
+        <v>44841</v>
       </c>
       <c r="K109">
         <f ca="1">RAND()</f>
-        <v>4.120107674448259E-3</v>
+        <v>6.7529401345753914E-2</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="B110" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C110" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="E110">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="F110">
-        <v>119</v>
+        <v>78</v>
       </c>
       <c r="G110" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="H110">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="I110" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K110">
         <f ca="1">RAND()</f>
-        <v>8.4161002428275178E-2</v>
+        <v>4.6317654809096998E-2</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>332</v>
+        <v>131</v>
       </c>
       <c r="B111" t="s">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="C111" t="s">
-        <v>253</v>
+        <v>133</v>
       </c>
       <c r="D111" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="E111">
-        <v>166</v>
+        <v>50</v>
       </c>
       <c r="F111">
-        <v>196</v>
+        <v>85</v>
       </c>
       <c r="G111" t="s">
-        <v>188</v>
-      </c>
-      <c r="H111" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
+        <v>227</v>
+      </c>
+      <c r="H111">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>35</v>
       </c>
       <c r="I111" s="4">
-        <v>44833</v>
+        <v>44841</v>
+      </c>
+      <c r="J111" t="s">
+        <v>146</v>
       </c>
       <c r="K111">
         <f ca="1">RAND()</f>
-        <v>0.19558072610914601</v>
+        <v>0.25959660407214635</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B112" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C112" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D112" t="s">
-        <v>249</v>
+        <v>10</v>
       </c>
       <c r="E112">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="F112">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G112" t="s">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="H112">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I112" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K112">
         <f ca="1">RAND()</f>
-        <v>0.1545817018632123</v>
+        <v>0.35192076380542692</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>375</v>
+        <v>328</v>
       </c>
       <c r="B113" t="s">
-        <v>374</v>
+        <v>240</v>
       </c>
       <c r="C113" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
         <v>10</v>
@@ -7504,573 +7376,564 @@
         <v>45</v>
       </c>
       <c r="F113">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="G113" t="s">
         <v>237</v>
       </c>
       <c r="H113" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>34</v>
-      </c>
-      <c r="K113" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.94260888228173723</v>
+        <v>16</v>
+      </c>
+      <c r="I113" s="4">
+        <v>44848</v>
+      </c>
+      <c r="K113">
+        <f ca="1">RAND()</f>
+        <v>0.725226080066664</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="C114" t="s">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="D114" t="s">
         <v>10</v>
       </c>
       <c r="E114">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F114">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G114" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="H114">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>30</v>
       </c>
       <c r="I114" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K114">
         <f ca="1">RAND()</f>
-        <v>0.58605845900376763</v>
+        <v>0.38667685960321674</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>388</v>
+        <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>389</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>179</v>
+        <v>24</v>
       </c>
       <c r="D115" t="s">
         <v>10</v>
       </c>
       <c r="E115">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F115">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="G115" t="s">
-        <v>237</v>
-      </c>
-      <c r="H115" s="5">
+        <v>15</v>
+      </c>
+      <c r="H115">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>32</v>
       </c>
-      <c r="K115" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.41141695336460493</v>
+      <c r="I115" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K115">
+        <f ca="1">RAND()</f>
+        <v>0.40105149730370682</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
+        <v>326</v>
+      </c>
+      <c r="B116" t="s">
+        <v>226</v>
+      </c>
+      <c r="C116" t="s">
+        <v>187</v>
+      </c>
+      <c r="D116" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116">
+        <v>10</v>
+      </c>
+      <c r="F116">
+        <v>29</v>
+      </c>
+      <c r="G116" t="s">
+        <v>228</v>
+      </c>
+      <c r="H116">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>19</v>
       </c>
-      <c r="B116" t="s">
-        <v>20</v>
-      </c>
-      <c r="C116" t="s">
-        <v>21</v>
-      </c>
-      <c r="D116" t="s">
-        <v>10</v>
-      </c>
-      <c r="E116">
-        <v>10</v>
-      </c>
-      <c r="F116">
-        <v>31</v>
-      </c>
-      <c r="G116" t="s">
-        <v>15</v>
-      </c>
-      <c r="H116">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
-      </c>
       <c r="I116" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K116">
         <f ca="1">RAND()</f>
-        <v>1.7957321317284558E-2</v>
+        <v>0.80371495938811477</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>335</v>
       </c>
       <c r="B117" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="C117" t="s">
-        <v>90</v>
+        <v>260</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>52</v>
       </c>
       <c r="E117">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="F117">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G117" t="s">
-        <v>214</v>
-      </c>
-      <c r="H117">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>237</v>
+      </c>
+      <c r="H117" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>30</v>
       </c>
       <c r="I117" s="4">
-        <v>44834</v>
+        <v>44848</v>
       </c>
       <c r="K117">
         <f ca="1">RAND()</f>
-        <v>0.68885756080753324</v>
+        <v>0.43473688941108035</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>384</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>385</v>
       </c>
       <c r="C118" t="s">
-        <v>84</v>
+        <v>278</v>
       </c>
       <c r="D118" t="s">
         <v>10</v>
       </c>
       <c r="E118">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F118">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G118" t="s">
-        <v>272</v>
+        <v>237</v>
       </c>
       <c r="H118" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
         <v>29</v>
       </c>
-      <c r="I118" s="4">
-        <v>44834</v>
-      </c>
-      <c r="K118">
-        <f ca="1">RAND()</f>
-        <v>0.12021223811599802</v>
+      <c r="K118" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.3641182430377552</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
       <c r="B119" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="C119" t="s">
-        <v>221</v>
+        <v>43</v>
       </c>
       <c r="D119" t="s">
         <v>10</v>
       </c>
       <c r="E119">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="F119">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G119" t="s">
-        <v>45</v>
+        <v>242</v>
       </c>
       <c r="H119">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I119" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K119">
         <f ca="1">RAND()</f>
-        <v>0.43030180229283088</v>
+        <v>0.82050183093183504</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>30</v>
       </c>
       <c r="C120" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>359</v>
       </c>
       <c r="E120">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F120">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="G120" t="s">
-        <v>59</v>
-      </c>
-      <c r="H120">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>40</v>
-      </c>
-      <c r="I120" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J120" t="s">
-        <v>146</v>
-      </c>
-      <c r="K120">
-        <f ca="1">RAND()</f>
-        <v>0.69128724537323971</v>
+        <v>237</v>
+      </c>
+      <c r="H120" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>72</v>
+      </c>
+      <c r="K120" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.14880698723102603</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>38</v>
+        <v>323</v>
       </c>
       <c r="B121" t="s">
-        <v>39</v>
+        <v>222</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="D121" t="s">
-        <v>376</v>
+        <v>303</v>
       </c>
       <c r="E121">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F121">
         <v>65</v>
       </c>
       <c r="G121" t="s">
-        <v>251</v>
+        <v>284</v>
       </c>
       <c r="H121">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="I121" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K121">
         <f ca="1">RAND()</f>
-        <v>0.89514742169222883</v>
+        <v>0.24672416592651192</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>363</v>
+        <v>311</v>
       </c>
       <c r="B122" t="s">
-        <v>364</v>
+        <v>210</v>
       </c>
       <c r="C122" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="D122" t="s">
         <v>303</v>
       </c>
       <c r="E122">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F122">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="G122" t="s">
-        <v>237</v>
-      </c>
-      <c r="H122" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>37</v>
-      </c>
-      <c r="K122" s="5">
-        <f ca="1">RAND()</f>
-        <v>5.2755011170802724E-2</v>
+        <v>264</v>
+      </c>
+      <c r="H122">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>33</v>
+      </c>
+      <c r="I122" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K122">
+        <f ca="1">RAND()</f>
+        <v>0.53945400850493241</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="B123" t="s">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="C123" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s">
         <v>10</v>
       </c>
       <c r="E123">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F123">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="G123" t="s">
-        <v>237</v>
-      </c>
-      <c r="H123" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>18</v>
+        <v>267</v>
+      </c>
+      <c r="H123">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>23</v>
       </c>
       <c r="I123" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K123">
         <f ca="1">RAND()</f>
-        <v>0.99862340354175172</v>
+        <v>0.54788744968070713</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>97</v>
+        <v>315</v>
       </c>
       <c r="B124" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
       <c r="C124" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D124" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E124">
-        <v>215</v>
+        <v>47</v>
       </c>
       <c r="F124">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="G124" t="s">
-        <v>15</v>
-      </c>
-      <c r="H124">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
+        <v>261</v>
+      </c>
+      <c r="H124" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>31</v>
       </c>
       <c r="I124" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K124">
         <f ca="1">RAND()</f>
-        <v>0.31496069002062543</v>
+        <v>0.31034318488373536</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>291</v>
+        <v>309</v>
       </c>
       <c r="B125" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="C125" t="s">
-        <v>84</v>
+        <v>207</v>
       </c>
       <c r="D125" t="s">
         <v>10</v>
       </c>
       <c r="E125">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F125">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="G125" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="H125">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I125" s="4">
-        <v>44834</v>
+        <v>44841</v>
       </c>
       <c r="K125">
         <f ca="1">RAND()</f>
-        <v>0.62964935556685497</v>
+        <v>0.69893048893945398</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>339</v>
+        <v>319</v>
       </c>
       <c r="B126" t="s">
-        <v>340</v>
+        <v>320</v>
       </c>
       <c r="C126" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="D126" t="s">
         <v>10</v>
       </c>
       <c r="E126">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F126">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G126" t="s">
-        <v>188</v>
-      </c>
-      <c r="H126" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>34</v>
+        <v>268</v>
+      </c>
+      <c r="H126">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>31</v>
       </c>
       <c r="I126" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K126">
         <f ca="1">RAND()</f>
-        <v>0.69936140978167627</v>
+        <v>0.86712319574918173</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>111</v>
+        <v>334</v>
       </c>
       <c r="B127" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="C127" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="D127" t="s">
         <v>10</v>
       </c>
       <c r="E127">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="F127">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="G127" t="s">
-        <v>45</v>
-      </c>
-      <c r="H127">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>29</v>
+        <v>237</v>
+      </c>
+      <c r="H127" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>30</v>
       </c>
       <c r="I127" s="4">
-        <v>44827</v>
+        <v>44848</v>
       </c>
       <c r="K127">
         <f ca="1">RAND()</f>
-        <v>0.27244626999717481</v>
+        <v>0.54661565203424978</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>73</v>
+        <v>363</v>
       </c>
       <c r="B128" t="s">
+        <v>364</v>
+      </c>
+      <c r="C128" t="s">
+        <v>43</v>
+      </c>
+      <c r="D128" t="s">
+        <v>303</v>
+      </c>
+      <c r="E128">
+        <v>37</v>
+      </c>
+      <c r="F128">
         <v>74</v>
       </c>
-      <c r="C128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D128" t="s">
-        <v>48</v>
-      </c>
-      <c r="E128">
-        <v>176</v>
-      </c>
-      <c r="F128">
-        <v>204</v>
-      </c>
       <c r="G128" t="s">
-        <v>45</v>
-      </c>
-      <c r="H128">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>28</v>
-      </c>
-      <c r="I128" s="4">
-        <v>44834</v>
-      </c>
-      <c r="K128">
-        <f ca="1">RAND()</f>
-        <v>0.65624480405000274</v>
+        <v>237</v>
+      </c>
+      <c r="H128" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>37</v>
+      </c>
+      <c r="K128" s="5">
+        <f ca="1">RAND()</f>
+        <v>0.66635771684198708</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>136</v>
+        <v>41</v>
       </c>
       <c r="B129" t="s">
-        <v>137</v>
+        <v>42</v>
       </c>
       <c r="C129" t="s">
-        <v>138</v>
+        <v>43</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="E129">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="F129">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="G129" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="H129">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>21</v>
-      </c>
-      <c r="I129" s="4">
-        <v>44833</v>
-      </c>
-      <c r="J129" t="s">
-        <v>146</v>
+        <v>204</v>
       </c>
       <c r="K129">
         <f ca="1">RAND()</f>
-        <v>7.2515487729179928E-2</v>
+        <v>0.5867805099320158</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>330</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>245</v>
+        <v>153</v>
       </c>
       <c r="C130" t="s">
-        <v>246</v>
+        <v>143</v>
       </c>
       <c r="D130" t="s">
         <v>10</v>
@@ -8079,294 +7942,368 @@
         <v>46</v>
       </c>
       <c r="F130">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="G130" t="s">
-        <v>237</v>
-      </c>
-      <c r="H130" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="H130">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>18</v>
       </c>
       <c r="I130" s="4">
-        <v>44833</v>
+        <v>44841</v>
+      </c>
+      <c r="J130" t="s">
+        <v>146</v>
       </c>
       <c r="K130">
         <f ca="1">RAND()</f>
-        <v>0.33512003418127967</v>
+        <v>0.59922462578807201</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="C131" t="s">
         <v>43</v>
       </c>
       <c r="D131" t="s">
-        <v>358</v>
+        <v>10</v>
       </c>
       <c r="E131">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F131">
-        <v>202</v>
+        <v>82</v>
       </c>
       <c r="G131" t="s">
-        <v>237</v>
-      </c>
-      <c r="H131" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>192</v>
-      </c>
-      <c r="K131" s="5">
-        <f ca="1">RAND()</f>
-        <v>3.5837048479699485E-2</v>
+        <v>59</v>
+      </c>
+      <c r="H131">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>32</v>
+      </c>
+      <c r="I131" s="4">
+        <v>44841</v>
+      </c>
+      <c r="J131" t="s">
+        <v>146</v>
+      </c>
+      <c r="K131">
+        <f ca="1">RAND()</f>
+        <v>0.90367560948578185</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>170</v>
+      <c r="A132" t="s">
+        <v>299</v>
+      </c>
+      <c r="B132" t="s">
+        <v>194</v>
       </c>
       <c r="C132" t="s">
-        <v>138</v>
+        <v>183</v>
       </c>
       <c r="D132" t="s">
         <v>10</v>
       </c>
       <c r="E132">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F132">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G132" t="s">
-        <v>165</v>
+        <v>282</v>
       </c>
       <c r="H132">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I132" s="4">
-        <v>44833</v>
+        <v>44841</v>
       </c>
       <c r="K132">
         <f ca="1">RAND()</f>
-        <v>0.63868554279563228</v>
+        <v>0.63836829387853744</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="B133" t="s">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>196</v>
       </c>
       <c r="D133" t="s">
-        <v>303</v>
+        <v>10</v>
       </c>
       <c r="E133">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F133">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="G133" t="s">
-        <v>237</v>
-      </c>
-      <c r="H133" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>38</v>
-      </c>
-      <c r="K133" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.85370239432003503</v>
+        <v>280</v>
+      </c>
+      <c r="H133">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>40</v>
+      </c>
+      <c r="I133" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K133">
+        <f ca="1">RAND()</f>
+        <v>0.29302990717185029</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c r="B134" t="s">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="C134" t="s">
-        <v>75</v>
+        <v>124</v>
       </c>
       <c r="D134" t="s">
         <v>10</v>
       </c>
       <c r="E134">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F134">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="G134" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>27</v>
+        <v>273</v>
+      </c>
+      <c r="H134">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>46</v>
       </c>
       <c r="I134" s="4">
-        <v>44834</v>
+        <v>44841</v>
+      </c>
+      <c r="J134" t="s">
+        <v>146</v>
       </c>
       <c r="K134">
         <f ca="1">RAND()</f>
-        <v>0.14885798815515572</v>
+        <v>0.63367826536669691</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>322</v>
+        <v>371</v>
       </c>
       <c r="B135" t="s">
-        <v>350</v>
+        <v>372</v>
       </c>
       <c r="C135" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>303</v>
       </c>
       <c r="E135">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="F135">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G135" t="s">
-        <v>242</v>
-      </c>
-      <c r="H135">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>25</v>
-      </c>
-      <c r="I135" s="4">
-        <v>44834</v>
-      </c>
-      <c r="J135" t="s">
-        <v>351</v>
-      </c>
-      <c r="K135">
-        <f ca="1">RAND()</f>
-        <v>0.15589270835717628</v>
+        <v>237</v>
+      </c>
+      <c r="H135" s="5">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>38</v>
+      </c>
+      <c r="K135" s="5">
+        <f ca="1">RAND()</f>
+        <v>8.0177420131342214E-2</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>302</v>
+        <v>68</v>
       </c>
       <c r="B136" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="C136" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="D136" t="s">
         <v>10</v>
       </c>
       <c r="E136">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F136">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G136" t="s">
-        <v>242</v>
+        <v>53</v>
       </c>
       <c r="H136">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>25</v>
-      </c>
-      <c r="I136" s="4">
-        <v>44834</v>
+        <v>36</v>
       </c>
       <c r="K136">
         <f ca="1">RAND()</f>
-        <v>0.91649745641575808</v>
+        <v>0.51778152489058127</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>335</v>
+        <v>66</v>
       </c>
       <c r="B137" t="s">
-        <v>259</v>
+        <v>67</v>
       </c>
       <c r="C137" t="s">
-        <v>260</v>
+        <v>57</v>
       </c>
       <c r="D137" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="E137">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="F137">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="G137" t="s">
-        <v>237</v>
-      </c>
-      <c r="H137" s="5">
-        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>30</v>
-      </c>
-      <c r="I137" s="4">
-        <v>44833</v>
+        <v>53</v>
+      </c>
+      <c r="H137">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>29</v>
       </c>
       <c r="K137">
         <f ca="1">RAND()</f>
-        <v>0.48463319032202623</v>
+        <v>0.48165062937858638</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>379</v>
+        <v>41</v>
       </c>
       <c r="B138" t="s">
-        <v>380</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>43</v>
       </c>
       <c r="D138" t="s">
         <v>10</v>
       </c>
       <c r="E138">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="F138">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G138" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H138" s="5">
         <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
-        <v>23</v>
-      </c>
-      <c r="K138" s="5">
-        <f ca="1">RAND()</f>
-        <v>0.78078185930773614</v>
+        <v>30</v>
+      </c>
+      <c r="I138" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K138">
+        <f ca="1">RAND()</f>
+        <v>0.57189697941809026</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s">
+        <v>10</v>
+      </c>
+      <c r="E139">
+        <v>48</v>
+      </c>
+      <c r="F139">
+        <v>65</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>17</v>
+      </c>
+      <c r="I139" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K139">
+        <f ca="1">RAND()</f>
+        <v>0.31026831635354979</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" t="s">
+        <v>26</v>
+      </c>
+      <c r="C140" t="s">
+        <v>27</v>
+      </c>
+      <c r="D140" t="s">
+        <v>10</v>
+      </c>
+      <c r="E140">
+        <v>45</v>
+      </c>
+      <c r="F140">
+        <v>77</v>
+      </c>
+      <c r="G140" t="s">
+        <v>28</v>
+      </c>
+      <c r="H140">
+        <f>Table1[[#This Row],[End]]-Table1[[#This Row],[Start]]</f>
+        <v>32</v>
+      </c>
+      <c r="I140" s="4">
+        <v>44841</v>
+      </c>
+      <c r="K140">
+        <f ca="1">RAND()</f>
+        <v>0.68167821615440849</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A135" r:id="rId1" xr:uid="{FE6674DC-90EE-4BEA-872C-93602D19C31E}"/>
-    <hyperlink ref="A17" r:id="rId2" xr:uid="{025BDFDC-2BA6-4C67-8D4D-A10C45D38CA8}"/>
+    <hyperlink ref="A36" r:id="rId1" xr:uid="{FE6674DC-90EE-4BEA-872C-93602D19C31E}"/>
+    <hyperlink ref="A121" r:id="rId2" xr:uid="{025BDFDC-2BA6-4C67-8D4D-A10C45D38CA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
